--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -644,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -668,165 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -843,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,29 +695,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -887,20 +713,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,9 +745,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,52 +1063,52 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="12">
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="21">
         <v>42612</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1302,12 +1124,12 @@
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="6">
+      <c r="H3" s="21">
         <v>42612</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1323,12 +1145,12 @@
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="6">
+      <c r="H4" s="21">
         <v>42612</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1344,12 +1166,12 @@
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="6">
+      <c r="H5" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1365,12 +1187,12 @@
         <v>5</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="6">
+      <c r="H6" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1386,12 +1208,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="6">
+      <c r="H7" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1407,12 +1229,12 @@
         <v>5</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="6">
+      <c r="H8" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1428,12 +1250,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="6">
+      <c r="H9" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1449,12 +1271,12 @@
         <v>5</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="6">
+      <c r="H10" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1470,12 +1292,12 @@
         <v>5</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="6">
+      <c r="H11" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1491,12 +1313,12 @@
         <v>5</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="6">
+      <c r="H12" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1512,12 +1334,12 @@
         <v>5</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="6">
+      <c r="H13" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1533,12 +1355,12 @@
         <v>5</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="6">
+      <c r="H14" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1554,12 +1376,12 @@
         <v>5</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="6">
+      <c r="H15" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1575,12 +1397,12 @@
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="6">
+      <c r="H16" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1596,12 +1418,12 @@
         <v>5</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="H17" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1617,12 +1439,12 @@
         <v>5</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="H18" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1638,12 +1460,12 @@
         <v>5</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="H19" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1659,12 +1481,12 @@
         <v>5</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="H20" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1680,12 +1502,12 @@
         <v>5</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
+      <c r="H21" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1701,12 +1523,12 @@
         <v>5</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="H22" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1722,12 +1544,12 @@
         <v>5</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="H23" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1743,12 +1565,12 @@
         <v>5</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="H24" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1764,12 +1586,12 @@
         <v>5</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
+      <c r="H25" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1785,12 +1607,12 @@
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="H26" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1806,12 +1628,12 @@
         <v>5</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
+      <c r="H27" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1827,12 +1649,12 @@
         <v>5</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
+      <c r="H28" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1848,12 +1670,12 @@
         <v>5</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+      <c r="H29" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1869,12 +1691,12 @@
         <v>5</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
+      <c r="H30" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1890,12 +1712,12 @@
         <v>5</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+      <c r="H31" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1911,12 +1733,12 @@
         <v>5</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="H32" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1932,12 +1754,12 @@
         <v>5</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="H33" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1953,12 +1775,12 @@
         <v>5</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="H34" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1974,12 +1796,12 @@
         <v>5</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="31" t="s">
+      <c r="H35" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1995,12 +1817,12 @@
         <v>5</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="H36" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2016,12 +1838,12 @@
         <v>5</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="H37" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2037,12 +1859,12 @@
         <v>5</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
+      <c r="H38" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2058,12 +1880,12 @@
         <v>5</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
+      <c r="H39" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2079,12 +1901,12 @@
         <v>5</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+      <c r="H40" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2100,12 +1922,12 @@
         <v>5</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
+      <c r="H41" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2121,12 +1943,12 @@
         <v>5</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="31" t="s">
+      <c r="H42" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2142,12 +1964,12 @@
         <v>5</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="31" t="s">
+      <c r="H43" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2163,12 +1985,12 @@
         <v>5</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
+      <c r="H44" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2184,12 +2006,12 @@
         <v>5</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
+      <c r="H45" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2205,12 +2027,12 @@
         <v>5</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="31" t="s">
+      <c r="H46" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2226,12 +2048,12 @@
         <v>5</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="31" t="s">
+      <c r="H47" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2247,12 +2069,12 @@
         <v>5</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
+      <c r="H48" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2261,19 +2083,19 @@
       <c r="D49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
+      <c r="H49" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2289,12 +2111,12 @@
         <v>5</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="31" t="s">
+      <c r="H50" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2310,12 +2132,12 @@
         <v>5</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="31" t="s">
+      <c r="H51" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2331,12 +2153,12 @@
         <v>5</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="31" t="s">
+      <c r="H52" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2352,12 +2174,12 @@
         <v>5</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="31" t="s">
+      <c r="H53" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2373,12 +2195,12 @@
         <v>5</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
+      <c r="H54" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2394,12 +2216,12 @@
         <v>5</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" t="s">
+      <c r="H55" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2415,12 +2237,12 @@
         <v>5</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="H56" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2436,12 +2258,12 @@
         <v>5</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="32" t="s">
+      <c r="H57" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -2457,12 +2279,12 @@
         <v>5</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="32" t="s">
+      <c r="H58" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2478,12 +2300,12 @@
         <v>5</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="31" t="s">
+      <c r="H59" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2499,12 +2321,12 @@
         <v>5</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="31" t="s">
+      <c r="H60" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2520,12 +2342,12 @@
         <v>5</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="31" t="s">
+      <c r="H61" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2541,12 +2363,12 @@
         <v>5</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="6">
-        <v>42635</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="31" t="s">
+      <c r="H62" s="21">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2562,12 +2384,12 @@
         <v>5</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="6">
+      <c r="H63" s="21">
         <v>42635</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2583,12 +2405,12 @@
         <v>5</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="6">
+      <c r="H64" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2604,12 +2426,12 @@
         <v>5</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="6">
+      <c r="H65" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2625,12 +2447,12 @@
         <v>5</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="6">
+      <c r="H66" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2646,12 +2468,12 @@
         <v>5</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="6">
+      <c r="H67" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -2667,12 +2489,12 @@
         <v>5</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="6">
+      <c r="H68" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2688,12 +2510,12 @@
         <v>5</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="6">
+      <c r="H69" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2709,12 +2531,12 @@
         <v>5</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="6">
+      <c r="H70" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2730,12 +2552,12 @@
         <v>5</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="6">
+      <c r="H71" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2751,12 +2573,12 @@
         <v>5</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="6">
+      <c r="H72" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2772,12 +2594,12 @@
         <v>5</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="6">
+      <c r="H73" s="21">
         <v>42620</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2793,12 +2615,12 @@
         <v>5</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="6">
+      <c r="H74" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2814,12 +2636,12 @@
         <v>5</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="6">
+      <c r="H75" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2835,12 +2657,12 @@
         <v>5</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="6">
+      <c r="H76" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2856,12 +2678,12 @@
         <v>5</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="6">
+      <c r="H77" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2877,12 +2699,12 @@
         <v>5</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="6">
+      <c r="H78" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2898,12 +2720,12 @@
         <v>5</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="6">
+      <c r="H79" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2919,12 +2741,12 @@
         <v>5</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="6">
+      <c r="H80" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2940,12 +2762,12 @@
         <v>5</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="6">
+      <c r="H81" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2961,12 +2783,12 @@
         <v>5</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="6">
+      <c r="H82" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2982,12 +2804,12 @@
         <v>5</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="6">
+      <c r="H83" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3003,12 +2825,12 @@
         <v>5</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="6">
+      <c r="H84" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3024,12 +2846,12 @@
         <v>5</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="6">
+      <c r="H85" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3045,12 +2867,12 @@
         <v>5</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="6">
+      <c r="H86" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3066,12 +2888,12 @@
         <v>5</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="6">
+      <c r="H87" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3087,12 +2909,12 @@
         <v>5</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="6">
+      <c r="H88" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3108,12 +2930,12 @@
         <v>5</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="6">
+      <c r="H89" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3129,12 +2951,12 @@
         <v>5</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="6">
+      <c r="H90" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3150,12 +2972,12 @@
         <v>5</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="6">
+      <c r="H91" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3171,12 +2993,12 @@
         <v>5</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="6">
+      <c r="H92" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3192,12 +3014,12 @@
         <v>5</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="6">
+      <c r="H93" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3213,12 +3035,12 @@
         <v>5</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="6">
+      <c r="H94" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3234,12 +3056,12 @@
         <v>5</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="H95" s="6">
+      <c r="H95" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3255,12 +3077,12 @@
         <v>5</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="6">
+      <c r="H96" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3276,12 +3098,12 @@
         <v>5</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="6">
+      <c r="H97" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3297,12 +3119,12 @@
         <v>5</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="6">
+      <c r="H98" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3318,12 +3140,12 @@
         <v>5</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="6">
+      <c r="H99" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3339,12 +3161,12 @@
         <v>5</v>
       </c>
       <c r="G100" s="2"/>
-      <c r="H100" s="6">
+      <c r="H100" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3360,12 +3182,12 @@
         <v>5</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="6">
+      <c r="H101" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -3381,12 +3203,12 @@
         <v>5</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="6">
+      <c r="H102" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3402,12 +3224,12 @@
         <v>5</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="6">
+      <c r="H103" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -3423,12 +3245,12 @@
         <v>5</v>
       </c>
       <c r="G104" s="2"/>
-      <c r="H104" s="6">
+      <c r="H104" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -3444,12 +3266,12 @@
         <v>5</v>
       </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="6">
+      <c r="H105" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -3465,12 +3287,12 @@
         <v>5</v>
       </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="6">
+      <c r="H106" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -3486,12 +3308,12 @@
         <v>5</v>
       </c>
       <c r="G107" s="2"/>
-      <c r="H107" s="6">
+      <c r="H107" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -3507,12 +3329,12 @@
         <v>5</v>
       </c>
       <c r="G108" s="2"/>
-      <c r="H108" s="6">
+      <c r="H108" s="21">
         <v>42627</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -3528,12 +3350,12 @@
         <v>5</v>
       </c>
       <c r="G109" s="2"/>
-      <c r="H109" s="6">
+      <c r="H109" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3549,12 +3371,12 @@
         <v>5</v>
       </c>
       <c r="G110" s="2"/>
-      <c r="H110" s="6">
+      <c r="H110" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -3570,12 +3392,12 @@
         <v>5</v>
       </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="6">
+      <c r="H111" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="22" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -3591,12 +3413,12 @@
         <v>5</v>
       </c>
       <c r="G112" s="2"/>
-      <c r="H112" s="6">
+      <c r="H112" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -3612,12 +3434,12 @@
         <v>5</v>
       </c>
       <c r="G113" s="2"/>
-      <c r="H113" s="6">
+      <c r="H113" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="22" t="s">
         <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -3633,12 +3455,12 @@
         <v>5</v>
       </c>
       <c r="G114" s="2"/>
-      <c r="H114" s="6">
+      <c r="H114" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="22" t="s">
         <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -3654,12 +3476,12 @@
         <v>5</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="6">
+      <c r="H115" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -3675,12 +3497,12 @@
         <v>5</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="6">
+      <c r="H116" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -3696,12 +3518,12 @@
         <v>5</v>
       </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="6">
+      <c r="H117" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3717,12 +3539,12 @@
         <v>5</v>
       </c>
       <c r="G118" s="2"/>
-      <c r="H118" s="6">
+      <c r="H118" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="22" t="s">
         <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -3738,12 +3560,12 @@
         <v>5</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="6">
+      <c r="H119" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3759,12 +3581,12 @@
         <v>5</v>
       </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="6">
+      <c r="H120" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -3780,12 +3602,12 @@
         <v>5</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="6">
+      <c r="H121" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -3801,12 +3623,12 @@
         <v>5</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="6">
+      <c r="H122" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -3822,12 +3644,12 @@
         <v>5</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="6">
+      <c r="H123" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -3843,12 +3665,12 @@
         <v>5</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="6">
+      <c r="H124" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="22" t="s">
         <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -3864,12 +3686,12 @@
         <v>5</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="6">
+      <c r="H125" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="22" t="s">
         <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -3885,12 +3707,12 @@
         <v>5</v>
       </c>
       <c r="G126" s="2"/>
-      <c r="H126" s="6">
+      <c r="H126" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="22" t="s">
         <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -3906,12 +3728,12 @@
         <v>5</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="6">
+      <c r="H127" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -3927,12 +3749,12 @@
         <v>5</v>
       </c>
       <c r="G128" s="2"/>
-      <c r="H128" s="6">
+      <c r="H128" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="22" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -3948,12 +3770,12 @@
         <v>5</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="6">
+      <c r="H129" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -3969,12 +3791,12 @@
         <v>5</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="6">
+      <c r="H130" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -3990,12 +3812,12 @@
         <v>5</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="6">
+      <c r="H131" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="22" t="s">
         <v>107</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -4011,12 +3833,12 @@
         <v>5</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="6">
+      <c r="H132" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -4032,12 +3854,12 @@
         <v>5</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="6">
+      <c r="H133" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -4053,12 +3875,12 @@
         <v>5</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="6">
+      <c r="H134" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -4074,12 +3896,12 @@
         <v>5</v>
       </c>
       <c r="G135" s="2"/>
-      <c r="H135" s="6">
+      <c r="H135" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="22" t="s">
         <v>159</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -4095,12 +3917,12 @@
         <v>5</v>
       </c>
       <c r="G136" s="2"/>
-      <c r="H136" s="6">
+      <c r="H136" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="22" t="s">
         <v>160</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -4116,12 +3938,12 @@
         <v>5</v>
       </c>
       <c r="G137" s="2"/>
-      <c r="H137" s="6">
+      <c r="H137" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4137,12 +3959,12 @@
         <v>5</v>
       </c>
       <c r="G138" s="2"/>
-      <c r="H138" s="6">
+      <c r="H138" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -4158,12 +3980,12 @@
         <v>5</v>
       </c>
       <c r="G139" s="2"/>
-      <c r="H139" s="6">
+      <c r="H139" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -4179,12 +4001,12 @@
         <v>5</v>
       </c>
       <c r="G140" s="2"/>
-      <c r="H140" s="6">
+      <c r="H140" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="22" t="s">
         <v>160</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -4200,12 +4022,12 @@
         <v>5</v>
       </c>
       <c r="G141" s="2"/>
-      <c r="H141" s="6">
+      <c r="H141" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="22" t="s">
         <v>160</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -4221,12 +4043,12 @@
         <v>5</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="6">
+      <c r="H142" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="22" t="s">
         <v>163</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -4242,12 +4064,12 @@
         <v>5</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="6">
+      <c r="H143" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -4263,12 +4085,12 @@
         <v>5</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="6">
+      <c r="H144" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -4284,12 +4106,12 @@
         <v>5</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="6">
+      <c r="H145" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -4305,12 +4127,12 @@
         <v>5</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="6">
+      <c r="H146" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -4326,12 +4148,12 @@
         <v>5</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="6">
+      <c r="H147" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -4347,12 +4169,12 @@
         <v>5</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="6">
+      <c r="H148" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -4368,12 +4190,12 @@
         <v>5</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="6">
+      <c r="H149" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -4389,12 +4211,12 @@
         <v>5</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="6">
+      <c r="H150" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -4410,12 +4232,12 @@
         <v>5</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="6">
+      <c r="H151" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="22" t="s">
         <v>92</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -4431,12 +4253,12 @@
         <v>5</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="6">
+      <c r="H152" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="31" t="s">
+      <c r="B153" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -4452,12 +4274,12 @@
         <v>5</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="6">
+      <c r="H153" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -4473,12 +4295,12 @@
         <v>5</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="6">
+      <c r="H154" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="31" t="s">
+      <c r="B155" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -4494,12 +4316,12 @@
         <v>5</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="6">
+      <c r="H155" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -4515,12 +4337,12 @@
         <v>5</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="6">
+      <c r="H156" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -4536,12 +4358,12 @@
         <v>5</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="6">
+      <c r="H157" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -4557,12 +4379,12 @@
         <v>5</v>
       </c>
       <c r="G158" s="2"/>
-      <c r="H158" s="6">
+      <c r="H158" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -4578,12 +4400,12 @@
         <v>5</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="6">
+      <c r="H159" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4599,12 +4421,12 @@
         <v>5</v>
       </c>
       <c r="G160" s="2"/>
-      <c r="H160" s="6">
+      <c r="H160" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -4620,12 +4442,12 @@
         <v>5</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="6">
+      <c r="H161" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4641,12 +4463,12 @@
         <v>5</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="6">
+      <c r="H162" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="31" t="s">
+      <c r="B163" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -4662,12 +4484,12 @@
         <v>5</v>
       </c>
       <c r="G163" s="2"/>
-      <c r="H163" s="6">
+      <c r="H163" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="31" t="s">
+      <c r="B164" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -4683,12 +4505,12 @@
         <v>5</v>
       </c>
       <c r="G164" s="2"/>
-      <c r="H164" s="6">
+      <c r="H164" s="21">
         <v>42639</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="31" t="s">
+      <c r="B165" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -4704,10 +4526,10 @@
         <v>5</v>
       </c>
       <c r="G165" s="2"/>
-      <c r="H165" s="42"/>
+      <c r="H165" s="2"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -4723,10 +4545,10 @@
         <v>5</v>
       </c>
       <c r="G166" s="2"/>
-      <c r="H166" s="42"/>
+      <c r="H166" s="2"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="31" t="s">
+      <c r="B167" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -4742,10 +4564,10 @@
         <v>5</v>
       </c>
       <c r="G167" s="2"/>
-      <c r="H167" s="42"/>
+      <c r="H167" s="2"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -4761,10 +4583,10 @@
         <v>5</v>
       </c>
       <c r="G168" s="2"/>
-      <c r="H168" s="42"/>
+      <c r="H168" s="2"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -4780,10 +4602,10 @@
         <v>5</v>
       </c>
       <c r="G169" s="2"/>
-      <c r="H169" s="42"/>
+      <c r="H169" s="2"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -4799,26 +4621,26 @@
         <v>5</v>
       </c>
       <c r="G170" s="2"/>
-      <c r="H170" s="42"/>
-    </row>
-    <row r="171" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="43" t="s">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" s="7"/>
-      <c r="H171" s="44"/>
+      <c r="E171" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4842,502 +4664,502 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="27">
+      <c r="A2" s="7"/>
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="16">
         <v>4</v>
       </c>
-      <c r="F2" s="27">
-        <v>5</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="F2" s="16">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9">
         <v>6</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="16">
         <v>7</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="17">
         <v>8</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="17">
         <v>9</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="16">
         <v>10</v>
       </c>
-      <c r="L2" s="20">
-        <v>11</v>
-      </c>
-      <c r="M2" s="20">
+      <c r="L2" s="9">
+        <v>11</v>
+      </c>
+      <c r="M2" s="9">
         <v>12</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="9">
         <v>13</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="9">
         <v>14</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="9">
         <v>15</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="16">
         <v>16</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="9">
         <v>17</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="9">
         <v>18</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="9">
         <v>19</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="9">
         <v>20</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="37" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="37" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="154">

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de fuentes y dependencias" sheetId="1" r:id="rId1"/>
     <sheet name="Modulos x Subject" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista de fuentes y dependencias'!$B$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="190">
   <si>
     <t>Nombre Fuente</t>
   </si>
@@ -543,6 +546,48 @@
   </si>
   <si>
     <t>CON_CompraCartera</t>
+  </si>
+  <si>
+    <t>T70OBLIG_RESTRUCTURADA</t>
+  </si>
+  <si>
+    <t>T69OBLIGACIONESANOVAR</t>
+  </si>
+  <si>
+    <t>T73CUOTA</t>
+  </si>
+  <si>
+    <t>T120DESTINACIONXSOLICITUD</t>
+  </si>
+  <si>
+    <t>T99CASTIGO</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>REL_SOL_INV</t>
+  </si>
+  <si>
+    <t>CON_CTA</t>
+  </si>
+  <si>
+    <t>RES_USO_D_CRED</t>
+  </si>
+  <si>
+    <t>REL_CON_SOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON </t>
+  </si>
+  <si>
+    <t>REL_EN_CON</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>CON_CNL</t>
   </si>
 </sst>
 </file>
@@ -644,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -680,11 +725,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,14 +898,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,12 +909,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H171"/>
+  <dimension ref="B1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,52 +1258,52 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="21">
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="32">
         <v>42612</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1124,12 +1319,12 @@
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="21">
+      <c r="H3" s="34">
         <v>42612</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1145,12 +1340,12 @@
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="21">
+      <c r="H4" s="34">
         <v>42612</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1166,12 +1361,12 @@
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="21">
+      <c r="H5" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="33" t="s">
         <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1187,12 +1382,12 @@
         <v>5</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="21">
+      <c r="H6" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="33" t="s">
         <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1208,12 +1403,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="21">
+      <c r="H7" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="33" t="s">
         <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1229,12 +1424,12 @@
         <v>5</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="21">
+      <c r="H8" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="33" t="s">
         <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1250,12 +1445,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="21">
+      <c r="H9" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1271,12 +1466,12 @@
         <v>5</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="21">
+      <c r="H10" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="33" t="s">
         <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1292,12 +1487,12 @@
         <v>5</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="21">
+      <c r="H11" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1313,12 +1508,12 @@
         <v>5</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="21">
+      <c r="H12" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1334,12 +1529,12 @@
         <v>5</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="21">
+      <c r="H13" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1355,12 +1550,12 @@
         <v>5</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="21">
+      <c r="H14" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="33" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1376,12 +1571,12 @@
         <v>5</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="21">
+      <c r="H15" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1397,12 +1592,12 @@
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="21">
+      <c r="H16" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1418,12 +1613,12 @@
         <v>5</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="21">
+      <c r="H17" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1439,12 +1634,12 @@
         <v>5</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="21">
+      <c r="H18" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1460,12 +1655,12 @@
         <v>5</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="21">
+      <c r="H19" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1481,12 +1676,12 @@
         <v>5</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="21">
+      <c r="H20" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1502,12 +1697,12 @@
         <v>5</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="21">
+      <c r="H21" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="22" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1523,12 +1718,12 @@
         <v>5</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="21">
+      <c r="H22" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="23" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1544,12 +1739,12 @@
         <v>5</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="21">
+      <c r="H23" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1565,12 +1760,12 @@
         <v>5</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="21">
+      <c r="H24" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="25" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1586,12 +1781,12 @@
         <v>5</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="21">
+      <c r="H25" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="26" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1607,12 +1802,12 @@
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="21">
+      <c r="H26" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="27" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1628,12 +1823,12 @@
         <v>5</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="21">
+      <c r="H27" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="28" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1649,12 +1844,12 @@
         <v>5</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="21">
+      <c r="H28" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="29" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1670,12 +1865,12 @@
         <v>5</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="21">
+      <c r="H29" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="30" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1691,12 +1886,12 @@
         <v>5</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="21">
+      <c r="H30" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="31" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1712,12 +1907,12 @@
         <v>5</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="21">
+      <c r="H31" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="32" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1733,12 +1928,12 @@
         <v>5</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="21">
+      <c r="H32" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="33" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1754,12 +1949,12 @@
         <v>5</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="21">
+      <c r="H33" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1775,12 +1970,12 @@
         <v>5</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="21">
+      <c r="H34" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1796,12 +1991,12 @@
         <v>5</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="21">
+      <c r="H35" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1817,12 +2012,12 @@
         <v>5</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="21">
+      <c r="H36" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1838,12 +2033,12 @@
         <v>5</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="21">
+      <c r="H37" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="38" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1859,12 +2054,12 @@
         <v>5</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="21">
+      <c r="H38" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="39" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1880,12 +2075,12 @@
         <v>5</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="21">
+      <c r="H39" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1901,12 +2096,12 @@
         <v>5</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="21">
+      <c r="H40" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1922,12 +2117,12 @@
         <v>5</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="21">
+      <c r="H41" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -1943,12 +2138,12 @@
         <v>5</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="21">
+      <c r="H42" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1964,12 +2159,12 @@
         <v>5</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="21">
+      <c r="H43" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1985,12 +2180,12 @@
         <v>5</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="21">
+      <c r="H44" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2006,12 +2201,12 @@
         <v>5</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="21">
+      <c r="H45" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2027,12 +2222,12 @@
         <v>5</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="21">
+      <c r="H46" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2048,12 +2243,12 @@
         <v>5</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="21">
+      <c r="H47" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2069,12 +2264,12 @@
         <v>5</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="21">
+      <c r="H48" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2090,12 +2285,12 @@
         <v>5</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="21">
+      <c r="H49" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2111,12 +2306,12 @@
         <v>5</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="21">
+      <c r="H50" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2132,12 +2327,12 @@
         <v>5</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="21">
+      <c r="H51" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="33" t="s">
         <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2153,12 +2348,12 @@
         <v>5</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="21">
+      <c r="H52" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="33" t="s">
         <v>152</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2174,12 +2369,12 @@
         <v>5</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="21">
+      <c r="H53" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="54" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2195,12 +2390,12 @@
         <v>5</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="21">
+      <c r="H54" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="55" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2216,12 +2411,12 @@
         <v>5</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="21">
+      <c r="H55" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="56" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2237,12 +2432,12 @@
         <v>5</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="21">
+      <c r="H56" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="57" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2258,12 +2453,12 @@
         <v>5</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="21">
+      <c r="H57" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="58" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -2279,12 +2474,12 @@
         <v>5</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="21">
+      <c r="H58" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="59" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2300,12 +2495,12 @@
         <v>5</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="21">
+      <c r="H59" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="60" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2321,12 +2516,12 @@
         <v>5</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="21">
+      <c r="H60" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="61" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2342,12 +2537,12 @@
         <v>5</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="21">
+      <c r="H61" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="62" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2363,12 +2558,12 @@
         <v>5</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="21">
+      <c r="H62" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="63" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2384,12 +2579,12 @@
         <v>5</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="21">
+      <c r="H63" s="34">
         <v>42635</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2405,12 +2600,12 @@
         <v>5</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="21">
+      <c r="H64" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2426,12 +2621,12 @@
         <v>5</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="21">
+      <c r="H65" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2447,12 +2642,12 @@
         <v>5</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="21">
+      <c r="H66" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2468,12 +2663,12 @@
         <v>5</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="21">
+      <c r="H67" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -2489,12 +2684,12 @@
         <v>5</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="21">
+      <c r="H68" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2510,12 +2705,12 @@
         <v>5</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="21">
+      <c r="H69" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2531,12 +2726,12 @@
         <v>5</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="21">
+      <c r="H70" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2552,12 +2747,12 @@
         <v>5</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="21">
+      <c r="H71" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2573,12 +2768,12 @@
         <v>5</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="21">
+      <c r="H72" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2594,12 +2789,12 @@
         <v>5</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="21">
+      <c r="H73" s="34">
         <v>42620</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2615,12 +2810,12 @@
         <v>5</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="21">
+      <c r="H74" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2636,12 +2831,12 @@
         <v>5</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="21">
+      <c r="H75" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2657,12 +2852,12 @@
         <v>5</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="21">
+      <c r="H76" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2678,12 +2873,12 @@
         <v>5</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="21">
+      <c r="H77" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2699,12 +2894,12 @@
         <v>5</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="21">
+      <c r="H78" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2720,12 +2915,12 @@
         <v>5</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="21">
+      <c r="H79" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2741,12 +2936,12 @@
         <v>5</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="21">
+      <c r="H80" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2762,12 +2957,12 @@
         <v>5</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="21">
+      <c r="H81" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2783,12 +2978,12 @@
         <v>5</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="21">
+      <c r="H82" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2804,12 +2999,12 @@
         <v>5</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="21">
+      <c r="H83" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2825,12 +3020,12 @@
         <v>5</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="21">
+      <c r="H84" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2846,12 +3041,12 @@
         <v>5</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="21">
+      <c r="H85" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2867,12 +3062,12 @@
         <v>5</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="21">
+      <c r="H86" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2888,12 +3083,12 @@
         <v>5</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="21">
+      <c r="H87" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2909,12 +3104,12 @@
         <v>5</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="21">
+      <c r="H88" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2930,12 +3125,12 @@
         <v>5</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="21">
+      <c r="H89" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2951,12 +3146,12 @@
         <v>5</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="21">
+      <c r="H90" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2972,12 +3167,12 @@
         <v>5</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="21">
+      <c r="H91" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2993,12 +3188,12 @@
         <v>5</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="21">
+      <c r="H92" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3014,12 +3209,12 @@
         <v>5</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="21">
+      <c r="H93" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3035,12 +3230,12 @@
         <v>5</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="21">
+      <c r="H94" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3056,12 +3251,12 @@
         <v>5</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="H95" s="21">
+      <c r="H95" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3077,12 +3272,12 @@
         <v>5</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="21">
+      <c r="H96" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3098,12 +3293,12 @@
         <v>5</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="21">
+      <c r="H97" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3119,12 +3314,12 @@
         <v>5</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="21">
+      <c r="H98" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3140,12 +3335,12 @@
         <v>5</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="21">
+      <c r="H99" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3161,12 +3356,12 @@
         <v>5</v>
       </c>
       <c r="G100" s="2"/>
-      <c r="H100" s="21">
+      <c r="H100" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3182,12 +3377,12 @@
         <v>5</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="21">
+      <c r="H101" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -3203,12 +3398,12 @@
         <v>5</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="21">
+      <c r="H102" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3224,12 +3419,12 @@
         <v>5</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="21">
+      <c r="H103" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -3245,12 +3440,12 @@
         <v>5</v>
       </c>
       <c r="G104" s="2"/>
-      <c r="H104" s="21">
+      <c r="H104" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -3266,12 +3461,12 @@
         <v>5</v>
       </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="21">
+      <c r="H105" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -3287,12 +3482,12 @@
         <v>5</v>
       </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="21">
+      <c r="H106" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -3308,12 +3503,12 @@
         <v>5</v>
       </c>
       <c r="G107" s="2"/>
-      <c r="H107" s="21">
+      <c r="H107" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -3329,12 +3524,12 @@
         <v>5</v>
       </c>
       <c r="G108" s="2"/>
-      <c r="H108" s="21">
+      <c r="H108" s="34">
         <v>42627</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="36" t="s">
         <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -3350,12 +3545,12 @@
         <v>5</v>
       </c>
       <c r="G109" s="2"/>
-      <c r="H109" s="21">
+      <c r="H109" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3371,12 +3566,12 @@
         <v>5</v>
       </c>
       <c r="G110" s="2"/>
-      <c r="H110" s="21">
+      <c r="H110" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -3392,12 +3587,12 @@
         <v>5</v>
       </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="21">
+      <c r="H111" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="36" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -3413,12 +3608,12 @@
         <v>5</v>
       </c>
       <c r="G112" s="2"/>
-      <c r="H112" s="21">
+      <c r="H112" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="36" t="s">
         <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -3434,12 +3629,12 @@
         <v>5</v>
       </c>
       <c r="G113" s="2"/>
-      <c r="H113" s="21">
+      <c r="H113" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -3455,12 +3650,12 @@
         <v>5</v>
       </c>
       <c r="G114" s="2"/>
-      <c r="H114" s="21">
+      <c r="H114" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="36" t="s">
         <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -3476,12 +3671,12 @@
         <v>5</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="21">
+      <c r="H115" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="36" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -3497,12 +3692,12 @@
         <v>5</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="21">
+      <c r="H116" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -3518,12 +3713,12 @@
         <v>5</v>
       </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="21">
+      <c r="H117" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3539,12 +3734,12 @@
         <v>5</v>
       </c>
       <c r="G118" s="2"/>
-      <c r="H118" s="21">
+      <c r="H118" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -3560,12 +3755,12 @@
         <v>5</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="21">
+      <c r="H119" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3581,12 +3776,12 @@
         <v>5</v>
       </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="21">
+      <c r="H120" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -3602,12 +3797,12 @@
         <v>5</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="21">
+      <c r="H121" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -3623,12 +3818,12 @@
         <v>5</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="21">
+      <c r="H122" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -3644,12 +3839,12 @@
         <v>5</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="21">
+      <c r="H123" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -3665,12 +3860,12 @@
         <v>5</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="21">
+      <c r="H124" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -3686,12 +3881,12 @@
         <v>5</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="21">
+      <c r="H125" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -3707,12 +3902,12 @@
         <v>5</v>
       </c>
       <c r="G126" s="2"/>
-      <c r="H126" s="21">
+      <c r="H126" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -3728,12 +3923,12 @@
         <v>5</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="21">
+      <c r="H127" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -3749,12 +3944,12 @@
         <v>5</v>
       </c>
       <c r="G128" s="2"/>
-      <c r="H128" s="21">
+      <c r="H128" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -3770,12 +3965,12 @@
         <v>5</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="21">
+      <c r="H129" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="36" t="s">
         <v>155</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -3791,12 +3986,12 @@
         <v>5</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="21">
+      <c r="H130" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -3812,12 +4007,12 @@
         <v>5</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="21">
+      <c r="H131" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -3833,12 +4028,12 @@
         <v>5</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="21">
+      <c r="H132" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -3854,12 +4049,12 @@
         <v>5</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="21">
+      <c r="H133" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="36" t="s">
         <v>157</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -3875,12 +4070,12 @@
         <v>5</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="21">
+      <c r="H134" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -3896,12 +4091,12 @@
         <v>5</v>
       </c>
       <c r="G135" s="2"/>
-      <c r="H135" s="21">
+      <c r="H135" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="36" t="s">
         <v>159</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -3917,12 +4112,12 @@
         <v>5</v>
       </c>
       <c r="G136" s="2"/>
-      <c r="H136" s="21">
+      <c r="H136" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -3938,12 +4133,12 @@
         <v>5</v>
       </c>
       <c r="G137" s="2"/>
-      <c r="H137" s="21">
+      <c r="H137" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -3959,12 +4154,12 @@
         <v>5</v>
       </c>
       <c r="G138" s="2"/>
-      <c r="H138" s="21">
+      <c r="H138" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -3980,12 +4175,12 @@
         <v>5</v>
       </c>
       <c r="G139" s="2"/>
-      <c r="H139" s="21">
+      <c r="H139" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -4001,12 +4196,12 @@
         <v>5</v>
       </c>
       <c r="G140" s="2"/>
-      <c r="H140" s="21">
+      <c r="H140" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -4022,12 +4217,12 @@
         <v>5</v>
       </c>
       <c r="G141" s="2"/>
-      <c r="H141" s="21">
+      <c r="H141" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -4043,12 +4238,12 @@
         <v>5</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="21">
+      <c r="H142" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="22" t="s">
+      <c r="B143" s="36" t="s">
         <v>163</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -4064,12 +4259,12 @@
         <v>5</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="21">
+      <c r="H143" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -4085,12 +4280,12 @@
         <v>5</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="21">
+      <c r="H144" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -4106,12 +4301,12 @@
         <v>5</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="21">
+      <c r="H145" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -4127,12 +4322,12 @@
         <v>5</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="21">
+      <c r="H146" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -4148,12 +4343,12 @@
         <v>5</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="21">
+      <c r="H147" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -4169,12 +4364,12 @@
         <v>5</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="21">
+      <c r="H148" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -4190,12 +4385,12 @@
         <v>5</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="21">
+      <c r="H149" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="36" t="s">
         <v>165</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -4211,12 +4406,12 @@
         <v>5</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="21">
+      <c r="H150" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="36" t="s">
         <v>166</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -4232,12 +4427,12 @@
         <v>5</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="21">
+      <c r="H151" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="36" t="s">
         <v>92</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -4253,12 +4448,12 @@
         <v>5</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="21">
+      <c r="H152" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="33" t="s">
         <v>162</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -4274,12 +4469,12 @@
         <v>5</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="21">
+      <c r="H153" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="33" t="s">
         <v>162</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -4295,12 +4490,12 @@
         <v>5</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="21">
+      <c r="H154" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="33" t="s">
         <v>162</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -4316,12 +4511,12 @@
         <v>5</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="21">
+      <c r="H155" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="33" t="s">
         <v>162</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -4337,12 +4532,12 @@
         <v>5</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="21">
+      <c r="H156" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="33" t="s">
         <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -4358,12 +4553,12 @@
         <v>5</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="21">
+      <c r="H157" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -4379,12 +4574,12 @@
         <v>5</v>
       </c>
       <c r="G158" s="2"/>
-      <c r="H158" s="21">
+      <c r="H158" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -4400,12 +4595,12 @@
         <v>5</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="21">
+      <c r="H159" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4421,12 +4616,12 @@
         <v>5</v>
       </c>
       <c r="G160" s="2"/>
-      <c r="H160" s="21">
+      <c r="H160" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="33" t="s">
         <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -4442,12 +4637,12 @@
         <v>5</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="21">
+      <c r="H161" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="33" t="s">
         <v>158</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4463,12 +4658,12 @@
         <v>5</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="21">
+      <c r="H162" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="33" t="s">
         <v>158</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -4484,12 +4679,12 @@
         <v>5</v>
       </c>
       <c r="G163" s="2"/>
-      <c r="H163" s="21">
+      <c r="H163" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="33" t="s">
         <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -4505,144 +4700,525 @@
         <v>5</v>
       </c>
       <c r="G164" s="2"/>
-      <c r="H164" s="21">
+      <c r="H164" s="34">
         <v>42639</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="37"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="37"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="37"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="37"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="2"/>
+      <c r="H169" s="37"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="37"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="37"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="2"/>
+      <c r="H172" s="37"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="37"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="2"/>
+      <c r="H174" s="37"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="37"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="37"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="37"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" s="37"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="2"/>
+      <c r="H179" s="37"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="37"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="2"/>
+      <c r="H181" s="37"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="2"/>
+      <c r="H182" s="37"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="37"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="37"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="2" t="s">
+      <c r="E185" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="37"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
+      <c r="E186" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="37"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="2" t="s">
+      <c r="E187" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="37"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
+      <c r="E188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="2"/>
+      <c r="H188" s="37"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="2" t="s">
+      <c r="E189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G189" s="2"/>
+      <c r="H189" s="37"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="2" t="s">
+      <c r="E190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G190" s="2"/>
+      <c r="H190" s="37"/>
+    </row>
+    <row r="191" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C191" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D191" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="E191" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="39"/>
+      <c r="H191" s="42"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4798,405 +5374,467 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="V12:V13"/>
     <mergeCell ref="A14:A15"/>
@@ -5221,102 +5859,40 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -887,6 +887,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,13 +899,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4479,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4538,13 +4538,13 @@
       <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="36" t="s">
         <v>170</v>
       </c>
       <c r="Q3" t="s">
@@ -4686,405 +4686,467 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>117</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="A16:A17"/>
@@ -5109,102 +5171,40 @@
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -899,10 +899,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1206,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H157"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1223,7 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1246,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>IF(B2&lt;&gt;B3,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1271,11 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;B4,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1296,11 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1321,11 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B5" s="26" t="s">
         <v>121</v>
       </c>
@@ -1330,7 +1346,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B6" s="26" t="s">
         <v>122</v>
       </c>
@@ -1351,7 +1371,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B7" s="26" t="s">
         <v>123</v>
       </c>
@@ -1372,7 +1396,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B8" s="26" t="s">
         <v>124</v>
       </c>
@@ -1393,7 +1421,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B9" s="26" t="s">
         <v>125</v>
       </c>
@@ -1414,7 +1446,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B10" s="26" t="s">
         <v>126</v>
       </c>
@@ -1435,7 +1471,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B11" s="26" t="s">
         <v>127</v>
       </c>
@@ -1456,7 +1496,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B12" s="26" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +1521,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B13" s="26" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1546,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B14" s="26" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +1571,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B15" s="26" t="s">
         <v>128</v>
       </c>
@@ -1540,7 +1596,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B16" s="26" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1621,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B17" s="26" t="s">
         <v>22</v>
       </c>
@@ -1582,7 +1646,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B18" s="26" t="s">
         <v>29</v>
       </c>
@@ -1603,7 +1671,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B19" s="26" t="s">
         <v>29</v>
       </c>
@@ -1624,7 +1696,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B20" s="26" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1721,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B21" s="26" t="s">
         <v>29</v>
       </c>
@@ -1666,7 +1746,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B22" s="26" t="s">
         <v>23</v>
       </c>
@@ -1687,7 +1771,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B23" s="26" t="s">
         <v>23</v>
       </c>
@@ -1708,7 +1796,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B24" s="26" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1821,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B25" s="26" t="s">
         <v>23</v>
       </c>
@@ -1750,7 +1846,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B26" s="26" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1871,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1896,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B28" s="26" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1921,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B29" s="26" t="s">
         <v>24</v>
       </c>
@@ -1834,7 +1946,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B30" s="26" t="s">
         <v>25</v>
       </c>
@@ -1855,7 +1971,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B31" s="26" t="s">
         <v>25</v>
       </c>
@@ -1876,7 +1996,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B32" s="26" t="s">
         <v>26</v>
       </c>
@@ -1897,7 +2021,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B33" s="26" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +2046,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B34" s="26" t="s">
         <v>27</v>
       </c>
@@ -1939,7 +2071,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B35" s="26" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +2096,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B36" s="26" t="s">
         <v>34</v>
       </c>
@@ -1981,7 +2121,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B37" s="26" t="s">
         <v>34</v>
       </c>
@@ -2002,7 +2146,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B38" s="26" t="s">
         <v>28</v>
       </c>
@@ -2023,7 +2171,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B39" s="26" t="s">
         <v>28</v>
       </c>
@@ -2044,7 +2196,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B40" s="26" t="s">
         <v>28</v>
       </c>
@@ -2065,7 +2221,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B41" s="26" t="s">
         <v>31</v>
       </c>
@@ -2086,7 +2246,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B42" s="26" t="s">
         <v>31</v>
       </c>
@@ -2107,7 +2271,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B43" s="26" t="s">
         <v>31</v>
       </c>
@@ -2128,7 +2296,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B44" s="26" t="s">
         <v>32</v>
       </c>
@@ -2149,7 +2321,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B45" s="26" t="s">
         <v>32</v>
       </c>
@@ -2170,7 +2346,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B46" s="26" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +2371,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B47" s="26" t="s">
         <v>33</v>
       </c>
@@ -2212,7 +2396,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B48" s="26" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +2421,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B49" s="28" t="s">
         <v>36</v>
       </c>
@@ -2254,7 +2446,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B50" s="26" t="s">
         <v>37</v>
       </c>
@@ -2275,7 +2471,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B51" s="26" t="s">
         <v>37</v>
       </c>
@@ -2296,7 +2496,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B52" s="26" t="s">
         <v>130</v>
       </c>
@@ -2317,7 +2521,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B53" s="26" t="s">
         <v>131</v>
       </c>
@@ -2338,7 +2546,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B54" s="26" t="s">
         <v>132</v>
       </c>
@@ -2359,7 +2571,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B55" s="28" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2596,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B56" s="28" t="s">
         <v>46</v>
       </c>
@@ -2401,7 +2621,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B57" s="28" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2646,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="58" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B58" s="28" t="s">
         <v>46</v>
       </c>
@@ -2443,7 +2671,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
@@ -2464,7 +2696,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="60" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B60" s="26" t="s">
         <v>132</v>
       </c>
@@ -2485,7 +2721,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B61" s="26" t="s">
         <v>132</v>
       </c>
@@ -2506,7 +2746,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="62" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B62" s="26" t="s">
         <v>132</v>
       </c>
@@ -2527,7 +2771,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B63" s="26" t="s">
         <v>132</v>
       </c>
@@ -2548,7 +2796,11 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B64" s="26" t="s">
         <v>53</v>
       </c>
@@ -2569,7 +2821,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B65" s="26" t="s">
         <v>55</v>
       </c>
@@ -2590,7 +2846,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B66" s="26" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +2871,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">IF(B67&lt;&gt;B68,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="B67" s="26" t="s">
         <v>55</v>
       </c>
@@ -2632,7 +2896,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B68" s="26" t="s">
         <v>56</v>
       </c>
@@ -2653,7 +2921,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B69" s="26" t="s">
         <v>56</v>
       </c>
@@ -2674,7 +2946,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B70" s="26" t="s">
         <v>56</v>
       </c>
@@ -2695,7 +2971,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B71" s="26" t="s">
         <v>57</v>
       </c>
@@ -2716,7 +2996,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B72" s="26" t="s">
         <v>57</v>
       </c>
@@ -2737,7 +3021,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B73" s="26" t="s">
         <v>57</v>
       </c>
@@ -2758,7 +3046,11 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B74" s="28" t="s">
         <v>63</v>
       </c>
@@ -2779,7 +3071,11 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B75" s="29" t="s">
         <v>69</v>
       </c>
@@ -2800,7 +3096,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B76" s="29" t="s">
         <v>77</v>
       </c>
@@ -2821,7 +3121,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B77" s="29" t="s">
         <v>70</v>
       </c>
@@ -2842,7 +3146,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B78" s="29" t="s">
         <v>72</v>
       </c>
@@ -2863,7 +3171,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B79" s="29" t="s">
         <v>73</v>
       </c>
@@ -2884,7 +3196,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B80" s="29" t="s">
         <v>74</v>
       </c>
@@ -2905,7 +3221,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B81" s="29" t="s">
         <v>133</v>
       </c>
@@ -2926,7 +3246,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B82" s="29" t="s">
         <v>75</v>
       </c>
@@ -2947,7 +3271,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B83" s="29" t="s">
         <v>76</v>
       </c>
@@ -2968,7 +3296,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B84" s="29" t="s">
         <v>78</v>
       </c>
@@ -2989,7 +3321,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B85" s="29" t="s">
         <v>79</v>
       </c>
@@ -3010,7 +3346,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B86" s="29" t="s">
         <v>80</v>
       </c>
@@ -3031,7 +3371,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B87" s="29" t="s">
         <v>81</v>
       </c>
@@ -3052,7 +3396,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B88" s="29" t="s">
         <v>82</v>
       </c>
@@ -3073,7 +3421,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B89" s="29" t="s">
         <v>83</v>
       </c>
@@ -3094,7 +3446,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B90" s="29" t="s">
         <v>84</v>
       </c>
@@ -3115,7 +3471,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B91" s="29" t="s">
         <v>85</v>
       </c>
@@ -3136,7 +3496,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B92" s="29" t="s">
         <v>87</v>
       </c>
@@ -3157,7 +3521,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B93" s="29" t="s">
         <v>88</v>
       </c>
@@ -3178,7 +3546,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B94" s="29" t="s">
         <v>90</v>
       </c>
@@ -3199,7 +3571,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B95" s="29" t="s">
         <v>91</v>
       </c>
@@ -3220,7 +3596,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B96" s="29" t="s">
         <v>134</v>
       </c>
@@ -3241,7 +3621,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B97" s="29" t="s">
         <v>89</v>
       </c>
@@ -3262,7 +3646,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B98" s="29" t="s">
         <v>86</v>
       </c>
@@ -3283,7 +3671,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B99" s="29" t="s">
         <v>135</v>
       </c>
@@ -3304,7 +3696,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B100" s="29" t="s">
         <v>136</v>
       </c>
@@ -3325,7 +3721,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B101" s="29" t="s">
         <v>137</v>
       </c>
@@ -3346,7 +3746,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B102" s="29" t="s">
         <v>138</v>
       </c>
@@ -3367,7 +3771,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B103" s="29" t="s">
         <v>139</v>
       </c>
@@ -3388,7 +3796,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B104" s="29" t="s">
         <v>141</v>
       </c>
@@ -3409,7 +3821,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B105" s="29" t="s">
         <v>141</v>
       </c>
@@ -3430,7 +3846,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B106" s="29" t="s">
         <v>141</v>
       </c>
@@ -3451,7 +3871,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B107" s="29" t="s">
         <v>139</v>
       </c>
@@ -3472,7 +3896,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B108" s="29" t="s">
         <v>139</v>
       </c>
@@ -3493,7 +3921,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B109" s="29" t="s">
         <v>142</v>
       </c>
@@ -3514,7 +3946,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B110" s="29" t="s">
         <v>137</v>
       </c>
@@ -3535,7 +3971,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B111" s="29" t="s">
         <v>137</v>
       </c>
@@ -3556,7 +3996,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B112" s="29" t="s">
         <v>137</v>
       </c>
@@ -3577,7 +4021,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B113" s="29" t="s">
         <v>143</v>
       </c>
@@ -3598,7 +4046,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B114" s="29" t="s">
         <v>143</v>
       </c>
@@ -3619,7 +4071,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B115" s="29" t="s">
         <v>143</v>
       </c>
@@ -3640,7 +4096,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B116" s="29" t="s">
         <v>144</v>
       </c>
@@ -3661,7 +4121,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B117" s="29" t="s">
         <v>145</v>
       </c>
@@ -3682,7 +4146,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B118" s="29" t="s">
         <v>71</v>
       </c>
@@ -3703,7 +4171,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B119" s="26" t="s">
         <v>141</v>
       </c>
@@ -3724,7 +4196,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B120" s="26" t="s">
         <v>141</v>
       </c>
@@ -3745,7 +4221,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B121" s="26" t="s">
         <v>141</v>
       </c>
@@ -3766,7 +4246,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B122" s="26" t="s">
         <v>141</v>
       </c>
@@ -3787,7 +4271,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B123" s="26" t="s">
         <v>141</v>
       </c>
@@ -3808,7 +4296,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B124" s="26" t="s">
         <v>149</v>
       </c>
@@ -3829,7 +4321,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B125" s="26" t="s">
         <v>149</v>
       </c>
@@ -3850,7 +4346,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B126" s="26" t="s">
         <v>149</v>
       </c>
@@ -3871,7 +4371,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B127" s="26" t="s">
         <v>137</v>
       </c>
@@ -3892,7 +4396,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B128" s="26" t="s">
         <v>137</v>
       </c>
@@ -3913,7 +4421,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B129" s="26" t="s">
         <v>137</v>
       </c>
@@ -3934,7 +4446,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B130" s="26" t="s">
         <v>137</v>
       </c>
@@ -3955,7 +4471,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ref="A131:A157" si="2">IF(B131&lt;&gt;B132,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="B131" s="26" t="s">
         <v>136</v>
       </c>
@@ -3974,7 +4494,11 @@
       <c r="G131" s="2"/>
       <c r="H131" s="30"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B132" s="26" t="s">
         <v>136</v>
       </c>
@@ -3993,7 +4517,11 @@
       <c r="G132" s="2"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B133" s="26" t="s">
         <v>145</v>
       </c>
@@ -4012,7 +4540,11 @@
       <c r="G133" s="2"/>
       <c r="H133" s="30"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B134" s="26" t="s">
         <v>145</v>
       </c>
@@ -4031,7 +4563,11 @@
       <c r="G134" s="2"/>
       <c r="H134" s="30"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B135" s="26" t="s">
         <v>145</v>
       </c>
@@ -4050,7 +4586,11 @@
       <c r="G135" s="2"/>
       <c r="H135" s="30"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B136" s="26" t="s">
         <v>145</v>
       </c>
@@ -4069,7 +4609,11 @@
       <c r="G136" s="2"/>
       <c r="H136" s="30"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B137" s="26" t="s">
         <v>145</v>
       </c>
@@ -4088,7 +4632,11 @@
       <c r="G137" s="2"/>
       <c r="H137" s="30"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B138" s="26" t="s">
         <v>155</v>
       </c>
@@ -4107,7 +4655,11 @@
       <c r="G138" s="2"/>
       <c r="H138" s="30"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B139" s="26" t="s">
         <v>155</v>
       </c>
@@ -4126,7 +4678,11 @@
       <c r="G139" s="2"/>
       <c r="H139" s="30"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B140" s="26" t="s">
         <v>155</v>
       </c>
@@ -4145,7 +4701,11 @@
       <c r="G140" s="2"/>
       <c r="H140" s="30"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B141" s="26" t="s">
         <v>155</v>
       </c>
@@ -4164,7 +4724,11 @@
       <c r="G141" s="2"/>
       <c r="H141" s="30"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B142" s="26" t="s">
         <v>155</v>
       </c>
@@ -4183,7 +4747,11 @@
       <c r="G142" s="2"/>
       <c r="H142" s="30"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B143" s="26" t="s">
         <v>156</v>
       </c>
@@ -4202,7 +4770,11 @@
       <c r="G143" s="2"/>
       <c r="H143" s="30"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B144" s="26" t="s">
         <v>156</v>
       </c>
@@ -4221,7 +4793,11 @@
       <c r="G144" s="2"/>
       <c r="H144" s="30"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B145" s="26" t="s">
         <v>156</v>
       </c>
@@ -4240,7 +4816,11 @@
       <c r="G145" s="2"/>
       <c r="H145" s="30"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B146" s="26" t="s">
         <v>157</v>
       </c>
@@ -4259,7 +4839,11 @@
       <c r="G146" s="2"/>
       <c r="H146" s="30"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B147" s="26" t="s">
         <v>157</v>
       </c>
@@ -4278,7 +4862,11 @@
       <c r="G147" s="2"/>
       <c r="H147" s="30"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B148" s="26" t="s">
         <v>157</v>
       </c>
@@ -4297,7 +4885,11 @@
       <c r="G148" s="2"/>
       <c r="H148" s="30"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B149" s="26" t="s">
         <v>158</v>
       </c>
@@ -4316,7 +4908,11 @@
       <c r="G149" s="2"/>
       <c r="H149" s="30"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B150" s="26" t="s">
         <v>159</v>
       </c>
@@ -4335,7 +4931,11 @@
       <c r="G150" s="2"/>
       <c r="H150" s="30"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B151" s="26" t="s">
         <v>151</v>
       </c>
@@ -4354,7 +4954,11 @@
       <c r="G151" s="2"/>
       <c r="H151" s="30"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B152" s="26" t="s">
         <v>151</v>
       </c>
@@ -4373,7 +4977,11 @@
       <c r="G152" s="2"/>
       <c r="H152" s="30"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B153" s="26" t="s">
         <v>151</v>
       </c>
@@ -4392,7 +5000,11 @@
       <c r="G153" s="2"/>
       <c r="H153" s="30"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B154" s="26" t="s">
         <v>151</v>
       </c>
@@ -4411,7 +5023,11 @@
       <c r="G154" s="2"/>
       <c r="H154" s="30"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B155" s="26" t="s">
         <v>151</v>
       </c>
@@ -4430,7 +5046,11 @@
       <c r="G155" s="2"/>
       <c r="H155" s="30"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B156" s="26" t="s">
         <v>151</v>
       </c>
@@ -4449,7 +5069,11 @@
       <c r="G156" s="2"/>
       <c r="H156" s="30"/>
     </row>
-    <row r="157" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B157" s="31" t="s">
         <v>151</v>
       </c>
@@ -4479,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4753,7 +5377,7 @@
       <c r="K8" s="37"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="39"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="39"/>
@@ -4843,7 +5467,7 @@
       <c r="A12" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="39"/>
@@ -4857,7 +5481,7 @@
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
-      <c r="N12" s="43"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -4909,7 +5533,7 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
-      <c r="N14" s="43"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="37"/>
@@ -4999,7 +5623,7 @@
       <c r="A18" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="37"/>
@@ -5008,7 +5632,7 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="39"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
@@ -5051,6 +5675,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -5075,136 +5829,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de fuentes y dependencias" sheetId="1" r:id="rId1"/>
     <sheet name="Modulos x Subject" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista de fuentes y dependencias'!$B$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista de fuentes y dependencias'!$B$1:$H$157</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="261">
   <si>
     <t>Nombre Fuente</t>
   </si>
@@ -68,9 +68,6 @@
     <t>PDO_D_TIE</t>
   </si>
   <si>
-    <t>Fecha de Envio a Chile</t>
-  </si>
-  <si>
     <t>PS_AA_AFICIONES</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>T08PRODUCTO</t>
   </si>
   <si>
-    <t>T15CARGO</t>
-  </si>
-  <si>
     <t>T16TIPOCONTRATO</t>
   </si>
   <si>
@@ -552,6 +546,261 @@
   </si>
   <si>
     <t>Carrillo?</t>
+  </si>
+  <si>
+    <t>BAS_ACTIVIDAD_ECONOMICA</t>
+  </si>
+  <si>
+    <t>BAS_CICLO_FACTURACION</t>
+  </si>
+  <si>
+    <t>BAS_CUPO_DE_CREDITO</t>
+  </si>
+  <si>
+    <t>BAS_ASEGURADORAS</t>
+  </si>
+  <si>
+    <t>BAS_DESTINO_CREDITO</t>
+  </si>
+  <si>
+    <t>BAS_ESTRATO</t>
+  </si>
+  <si>
+    <t>BAS_GARANTIAS</t>
+  </si>
+  <si>
+    <t>BAS_LINEA</t>
+  </si>
+  <si>
+    <t>BAS_MARCA</t>
+  </si>
+  <si>
+    <t>BAS_MODALIDAD_TASAS_INTERES</t>
+  </si>
+  <si>
+    <t>BAS_MODALIDADES_CREDITO</t>
+  </si>
+  <si>
+    <t>BAS_MODELO</t>
+  </si>
+  <si>
+    <t>BAS_MODELOS_SCORING</t>
+  </si>
+  <si>
+    <t>BAS_NATURALEZA_JURIDICA</t>
+  </si>
+  <si>
+    <t>BAS_PERIODICIDAD_TASAS_INTERES</t>
+  </si>
+  <si>
+    <t>BAS_PRODUCTOS_DE_COLOCACION</t>
+  </si>
+  <si>
+    <t>BAS_PROFESION</t>
+  </si>
+  <si>
+    <t>BAS_ROL_COMITE</t>
+  </si>
+  <si>
+    <t>BAS_ROL_CRM</t>
+  </si>
+  <si>
+    <t>BAS_ROL_EMPRESA</t>
+  </si>
+  <si>
+    <t>BAS_ROL_OFICINA</t>
+  </si>
+  <si>
+    <t>BAS_ROL_PERSONA</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_CONTRATO</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_COP</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_DE_SOCIEDAD</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_DECISION</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_ID</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_TASAS_INTERES</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_EMPLEADO</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_INMUEBLE</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_NEGOCIO</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_PRODUCTOS</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_VEHICULO</t>
+  </si>
+  <si>
+    <t>BAS_TIPO_VIVIENDA</t>
+  </si>
+  <si>
+    <t>BAS_USO_INMUEBLE</t>
+  </si>
+  <si>
+    <t>BAS_CARGO_DESEMPENADO</t>
+  </si>
+  <si>
+    <t>BAS_CATEGORIA_RIESGO</t>
+  </si>
+  <si>
+    <t>BAS_CAUSAL_RECHAZO</t>
+  </si>
+  <si>
+    <t>BAS_CAUSALES_DEVOLUCION</t>
+  </si>
+  <si>
+    <t>BAS_PLAZO</t>
+  </si>
+  <si>
+    <t>EFC_ETAPAS</t>
+  </si>
+  <si>
+    <t>EFC_USUARIOS</t>
+  </si>
+  <si>
+    <t>EFC_OFICINAS</t>
+  </si>
+  <si>
+    <t>BAS_CIUDADES</t>
+  </si>
+  <si>
+    <t>DB_INF_PERSONA_NATURAL</t>
+  </si>
+  <si>
+    <t>DB_COMPL_PERSONA_NATURAL</t>
+  </si>
+  <si>
+    <t>CLS_Otorgamiento</t>
+  </si>
+  <si>
+    <t>DB_EMPRESA</t>
+  </si>
+  <si>
+    <t>DB_SOCIOS_EMPRESA</t>
+  </si>
+  <si>
+    <t>DB_MIEMBROS_JUNTA</t>
+  </si>
+  <si>
+    <t>DB_ACTIVIDAD_ECON_NATURAL</t>
+  </si>
+  <si>
+    <t>DB_COMPL_EMPRESA</t>
+  </si>
+  <si>
+    <t>DB_INF_FINANCIERA</t>
+  </si>
+  <si>
+    <t>DB_REFERENCIAS_PERSONALES</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>SAFINW_BALANCES</t>
+  </si>
+  <si>
+    <t>INFO_FCRA</t>
+  </si>
+  <si>
+    <t>INV_Otorgamiento</t>
+  </si>
+  <si>
+    <t>DB_GARANTIA_EXIGIDA</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>VLR_D_REC</t>
+  </si>
+  <si>
+    <t>REL_REC_SOL</t>
+  </si>
+  <si>
+    <t>REL_EN_REC</t>
+  </si>
+  <si>
+    <t>REC_Otorgamiento</t>
+  </si>
+  <si>
+    <t>DB_GARANTIA_OFRECIDAS</t>
+  </si>
+  <si>
+    <t>DB_GARANTIAS_POR_UTILIZAR</t>
+  </si>
+  <si>
+    <t>DB_AVALUOS</t>
+  </si>
+  <si>
+    <t>DB_AVALUOS_EXIGIDOS</t>
+  </si>
+  <si>
+    <t>DB_PATRIMONIO_INMUEBLES</t>
+  </si>
+  <si>
+    <t>DB_PATRIMONIO_VEHICULOS</t>
+  </si>
+  <si>
+    <t>VEHI</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>DB_INF_VEHICULOS</t>
+  </si>
+  <si>
+    <t>DB_SOLICITUD</t>
+  </si>
+  <si>
+    <t>DB_OPERACIONES_AUTORIZADAS</t>
+  </si>
+  <si>
+    <t>REL_EN_SOL</t>
+  </si>
+  <si>
+    <t>REL_SOL_CON_CL</t>
+  </si>
+  <si>
+    <t>DB_OPERACIONES_CREDITO_SOLICITA</t>
+  </si>
+  <si>
+    <t>DB_OPERACIONES_UTILIZADAS</t>
+  </si>
+  <si>
+    <t>DB_OPERACIONES_ESPECIALES</t>
+  </si>
+  <si>
+    <t>SOL_Otorgamiento</t>
+  </si>
+  <si>
+    <t>UBI_Otorgamiento</t>
+  </si>
+  <si>
+    <t>Fecha de Liberaciona fabrica</t>
   </si>
 </sst>
 </file>
@@ -826,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,7 +1134,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,10 +1147,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1206,21 +1454,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A157"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1243,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1327,13 +1576,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -1352,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -1377,13 +1626,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
@@ -1402,13 +1651,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -1427,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
@@ -1452,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
@@ -1477,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
@@ -1502,13 +1751,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
@@ -1527,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>11</v>
@@ -1552,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
@@ -1577,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -1602,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
@@ -1627,13 +1876,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
@@ -1652,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -1677,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -1702,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -1727,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -1752,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -1777,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -1802,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -1827,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -1852,16 +2101,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>5</v>
@@ -1877,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>5</v>
@@ -1902,16 +2151,16 @@
         <v>0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>5</v>
@@ -1927,16 +2176,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>5</v>
@@ -1952,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>5</v>
@@ -1977,16 +2226,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>5</v>
@@ -2002,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>5</v>
@@ -2027,16 +2276,16 @@
         <v>0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>5</v>
@@ -2052,16 +2301,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>5</v>
@@ -2077,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>5</v>
@@ -2102,16 +2351,16 @@
         <v>0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>5</v>
@@ -2127,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -2152,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -2177,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>5</v>
@@ -2202,16 +2451,16 @@
         <v>1</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>5</v>
@@ -2227,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>5</v>
@@ -2252,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>5</v>
@@ -2277,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>4</v>
@@ -2302,16 +2551,16 @@
         <v>0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>5</v>
@@ -2327,16 +2576,16 @@
         <v>0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>5</v>
@@ -2352,16 +2601,16 @@
         <v>1</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>5</v>
@@ -2377,16 +2626,16 @@
         <v>1</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>5</v>
@@ -2402,10 +2651,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>4</v>
@@ -2427,16 +2676,16 @@
         <v>1</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>5</v>
@@ -2452,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>5</v>
@@ -2477,16 +2726,16 @@
         <v>1</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>5</v>
@@ -2502,16 +2751,16 @@
         <v>1</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>5</v>
@@ -2527,16 +2776,16 @@
         <v>1</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>5</v>
@@ -2552,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>4</v>
@@ -2577,13 +2826,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>11</v>
@@ -2602,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>11</v>
@@ -2627,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>11</v>
@@ -2652,13 +2901,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>11</v>
@@ -2677,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>11</v>
@@ -2702,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>11</v>
@@ -2727,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>11</v>
@@ -2752,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>11</v>
@@ -2777,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>11</v>
@@ -2802,13 +3051,13 @@
         <v>1</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>11</v>
@@ -2827,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>5</v>
@@ -2852,16 +3101,16 @@
         <v>0</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>5</v>
@@ -2877,16 +3126,16 @@
         <v>1</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>5</v>
@@ -2902,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>5</v>
@@ -2927,16 +3176,16 @@
         <v>0</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>5</v>
@@ -2952,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>5</v>
@@ -2977,16 +3226,16 @@
         <v>0</v>
       </c>
       <c r="B71" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>5</v>
@@ -3002,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="B72" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>5</v>
@@ -3027,16 +3276,16 @@
         <v>1</v>
       </c>
       <c r="B73" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="E73" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>5</v>
@@ -3052,16 +3301,16 @@
         <v>1</v>
       </c>
       <c r="B74" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="E74" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>5</v>
@@ -3077,13 +3326,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>11</v>
@@ -3102,13 +3351,13 @@
         <v>1</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>11</v>
@@ -3127,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>11</v>
@@ -3152,13 +3401,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>11</v>
@@ -3177,13 +3426,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>11</v>
@@ -3202,13 +3451,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>11</v>
@@ -3227,13 +3476,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>11</v>
@@ -3252,13 +3501,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>11</v>
@@ -3277,13 +3526,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>11</v>
@@ -3302,13 +3551,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>11</v>
@@ -3327,13 +3576,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>11</v>
@@ -3352,13 +3601,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>11</v>
@@ -3377,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>11</v>
@@ -3402,13 +3651,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>11</v>
@@ -3427,13 +3676,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>11</v>
@@ -3452,13 +3701,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>11</v>
@@ -3477,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>11</v>
@@ -3502,13 +3751,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>11</v>
@@ -3527,13 +3776,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>11</v>
@@ -3552,13 +3801,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>11</v>
@@ -3577,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>11</v>
@@ -3602,13 +3851,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>11</v>
@@ -3627,13 +3876,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>11</v>
@@ -3652,13 +3901,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>11</v>
@@ -3677,13 +3926,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>11</v>
@@ -3702,13 +3951,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>11</v>
@@ -3727,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>11</v>
@@ -3752,13 +4001,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>11</v>
@@ -3777,13 +4026,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>11</v>
@@ -3802,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>11</v>
@@ -3827,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>11</v>
@@ -3852,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>11</v>
@@ -3877,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>11</v>
@@ -3902,13 +4151,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>11</v>
@@ -3927,13 +4176,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>11</v>
@@ -3952,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>11</v>
@@ -3977,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>11</v>
@@ -4002,13 +4251,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>11</v>
@@ -4027,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>5</v>
@@ -4052,16 +4301,16 @@
         <v>0</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>5</v>
@@ -4077,13 +4326,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>11</v>
@@ -4102,16 +4351,16 @@
         <v>1</v>
       </c>
       <c r="B116" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E116" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>5</v>
@@ -4127,16 +4376,16 @@
         <v>1</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>5</v>
@@ -4152,13 +4401,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>11</v>
@@ -4177,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>11</v>
@@ -4202,13 +4451,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>11</v>
@@ -4227,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>11</v>
@@ -4252,13 +4501,13 @@
         <v>0</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>11</v>
@@ -4277,13 +4526,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>11</v>
@@ -4302,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>11</v>
@@ -4327,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>11</v>
@@ -4352,13 +4601,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>11</v>
@@ -4377,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>11</v>
@@ -4402,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>11</v>
@@ -4427,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>11</v>
@@ -4452,13 +4701,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>11</v>
@@ -4473,17 +4722,17 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" ref="A131:A157" si="2">IF(B131&lt;&gt;B132,1,0)</f>
+        <f t="shared" ref="A131:A194" si="2">IF(B131&lt;&gt;B132,1,0)</f>
         <v>0</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>11</v>
@@ -4492,7 +4741,9 @@
         <v>5</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="30"/>
+      <c r="H131" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -4500,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>11</v>
@@ -4515,7 +4766,9 @@
         <v>5</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="30"/>
+      <c r="H132" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -4523,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>11</v>
@@ -4538,7 +4791,9 @@
         <v>5</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="30"/>
+      <c r="H133" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -4546,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>11</v>
@@ -4561,7 +4816,9 @@
         <v>5</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="30"/>
+      <c r="H134" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -4569,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>11</v>
@@ -4584,7 +4841,9 @@
         <v>5</v>
       </c>
       <c r="G135" s="2"/>
-      <c r="H135" s="30"/>
+      <c r="H135" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -4592,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>11</v>
@@ -4607,7 +4866,9 @@
         <v>5</v>
       </c>
       <c r="G136" s="2"/>
-      <c r="H136" s="30"/>
+      <c r="H136" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -4615,13 +4876,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>11</v>
@@ -4630,7 +4891,9 @@
         <v>5</v>
       </c>
       <c r="G137" s="2"/>
-      <c r="H137" s="30"/>
+      <c r="H137" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -4638,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>11</v>
@@ -4653,7 +4916,9 @@
         <v>5</v>
       </c>
       <c r="G138" s="2"/>
-      <c r="H138" s="30"/>
+      <c r="H138" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -4661,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>11</v>
@@ -4676,7 +4941,9 @@
         <v>5</v>
       </c>
       <c r="G139" s="2"/>
-      <c r="H139" s="30"/>
+      <c r="H139" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -4684,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>11</v>
@@ -4699,7 +4966,9 @@
         <v>5</v>
       </c>
       <c r="G140" s="2"/>
-      <c r="H140" s="30"/>
+      <c r="H140" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -4707,13 +4976,13 @@
         <v>0</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>11</v>
@@ -4722,7 +4991,9 @@
         <v>5</v>
       </c>
       <c r="G141" s="2"/>
-      <c r="H141" s="30"/>
+      <c r="H141" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -4730,13 +5001,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>11</v>
@@ -4745,7 +5016,9 @@
         <v>5</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="30"/>
+      <c r="H142" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -4753,13 +5026,13 @@
         <v>0</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>11</v>
@@ -4768,7 +5041,9 @@
         <v>5</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="30"/>
+      <c r="H143" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -4776,13 +5051,13 @@
         <v>0</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>11</v>
@@ -4791,7 +5066,9 @@
         <v>5</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="30"/>
+      <c r="H144" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -4799,14 +5076,14 @@
         <v>1</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E145" s="5" t="s">
         <v>11</v>
       </c>
@@ -4814,7 +5091,9 @@
         <v>5</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="30"/>
+      <c r="H145" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -4822,22 +5101,24 @@
         <v>0</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="30"/>
+      <c r="H146" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -4845,22 +5126,24 @@
         <v>0</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="30"/>
+      <c r="H147" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -4868,22 +5151,24 @@
         <v>1</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="30"/>
+      <c r="H148" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -4891,22 +5176,24 @@
         <v>1</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="30"/>
+      <c r="H149" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -4914,13 +5201,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>11</v>
@@ -4929,7 +5216,9 @@
         <v>5</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="30"/>
+      <c r="H150" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -4937,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>11</v>
@@ -4952,7 +5241,9 @@
         <v>5</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="30"/>
+      <c r="H151" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -4960,14 +5251,14 @@
         <v>0</v>
       </c>
       <c r="B152" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E152" s="5" t="s">
         <v>11</v>
       </c>
@@ -4975,7 +5266,9 @@
         <v>5</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="30"/>
+      <c r="H152" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -4983,14 +5276,14 @@
         <v>0</v>
       </c>
       <c r="B153" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E153" s="5" t="s">
         <v>11</v>
       </c>
@@ -4998,7 +5291,9 @@
         <v>5</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="30"/>
+      <c r="H153" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -5006,14 +5301,14 @@
         <v>0</v>
       </c>
       <c r="B154" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E154" s="5" t="s">
         <v>11</v>
       </c>
@@ -5021,7 +5316,9 @@
         <v>5</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="30"/>
+      <c r="H154" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -5029,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>11</v>
@@ -5044,7 +5341,9 @@
         <v>5</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="30"/>
+      <c r="H155" s="27">
+        <v>42641</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -5052,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>11</v>
@@ -5067,33 +5366,3181 @@
         <v>5</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="30"/>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H156" s="27">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B157" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D157" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G157" s="32"/>
-      <c r="H157" s="35"/>
+      <c r="B157" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="2"/>
+      <c r="H157" s="27">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="27"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="2"/>
+      <c r="H159" s="27"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="2"/>
+      <c r="H160" s="27"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="27"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="27"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="30"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="30"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B165" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="30"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B166" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="30"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="30"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B168" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="30"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="2"/>
+      <c r="H169" s="30"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="30"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="30"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="2"/>
+      <c r="H172" s="30"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="30"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="2"/>
+      <c r="H174" s="30"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B175" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="30"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B176" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="30"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B177" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="30"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B178" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" s="30"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B179" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="2"/>
+      <c r="H179" s="30"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="30"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B181" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="2"/>
+      <c r="H181" s="30"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B182" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="2"/>
+      <c r="H182" s="30"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B183" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="30"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="30"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B185" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="30"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="30"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="30"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="2"/>
+      <c r="H188" s="30"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G189" s="2"/>
+      <c r="H189" s="30"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G190" s="2"/>
+      <c r="H190" s="30"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="2"/>
+      <c r="H191" s="30"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G192" s="2"/>
+      <c r="H192" s="30"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="2"/>
+      <c r="H193" s="30"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" s="30"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" ref="A195:A258" si="3">IF(B195&lt;&gt;B196,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="2"/>
+      <c r="H195" s="30"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G196" s="2"/>
+      <c r="H196" s="30"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G197" s="2"/>
+      <c r="H197" s="30"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" s="30"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="30"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" s="2"/>
+      <c r="H200" s="30"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="30"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="2"/>
+      <c r="H202" s="30"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="2"/>
+      <c r="H203" s="30"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G204" s="2"/>
+      <c r="H204" s="30"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" s="2"/>
+      <c r="H205" s="30"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="2"/>
+      <c r="H206" s="30"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G207" s="2"/>
+      <c r="H207" s="30"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" s="2"/>
+      <c r="H208" s="30"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G209" s="2"/>
+      <c r="H209" s="30"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="2"/>
+      <c r="H210" s="30"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G211" s="2"/>
+      <c r="H211" s="30"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G212" s="2"/>
+      <c r="H212" s="30"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G213" s="2"/>
+      <c r="H213" s="30"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G214" s="2"/>
+      <c r="H214" s="30"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B215" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G215" s="2"/>
+      <c r="H215" s="30"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G216" s="2"/>
+      <c r="H216" s="30"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G217" s="2"/>
+      <c r="H217" s="30"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G218" s="2"/>
+      <c r="H218" s="30"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G219" s="2"/>
+      <c r="H219" s="30"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B220" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G220" s="2"/>
+      <c r="H220" s="30"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B221" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G221" s="2"/>
+      <c r="H221" s="30"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B222" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G222" s="2"/>
+      <c r="H222" s="30"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B223" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G223" s="2"/>
+      <c r="H223" s="30"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B224" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G224" s="2"/>
+      <c r="H224" s="30"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B225" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G225" s="2"/>
+      <c r="H225" s="30"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B226" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" s="30"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B227" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G227" s="2"/>
+      <c r="H227" s="30"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B228" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G228" s="2"/>
+      <c r="H228" s="30"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="30"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B230" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="30"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B231" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="30"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B232" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="30"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B233" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="30"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B234" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="30"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B235" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="30"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B236" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="30"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B237" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="30"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B238" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="30"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B239" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="30"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B240" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="30"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B241" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="30"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B242" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="30"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B243" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="30"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B244" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="30"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B245" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="30"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B246" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="30"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B247" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="30"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B248" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="30"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B249" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="30"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B250" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="30"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="30"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B252" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="30"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B253" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="30"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B254" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="30"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B255" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="30"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B256" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="30"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B257" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="30"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B258" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="30"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" ref="A259:A300" si="4">IF(B259&lt;&gt;B260,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B259" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="30"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B260" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="30"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B261" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="30"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B262" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="30"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B263" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="30"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="30"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B265" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="30"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B266" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="30"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B267" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="30"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="30"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B269" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="30"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="30"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B271" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="30"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B272" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="30"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B273" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="30"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B274" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="30"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B275" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="30"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="30"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="30"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="30"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B279" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="30"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B280" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="30"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B281" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="30"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B282" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="30"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B283" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="30"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B284" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="30"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B285" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="30"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B286" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="30"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="30"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B288" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="30"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B289" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="30"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B290" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="30"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B291" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="30"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B292" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="30"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B293" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="30"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B294" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="30"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B295" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="30"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B296" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="30"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B297" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="30"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B298" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="30"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B299" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="30"/>
+    </row>
+    <row r="300" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B300" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C300" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E300" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" s="32"/>
+      <c r="G300" s="32"/>
+      <c r="H300" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5103,8 +8550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5117,62 +8564,62 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>170</v>
+      <c r="B3" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -5243,472 +8690,534 @@
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="M5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="N5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="O5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="Q5" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="R5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="S5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="U5" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="U5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="39" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="B12" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="A16:A17"/>
@@ -5733,102 +9242,40 @@
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="267">
   <si>
     <t>Nombre Fuente</t>
   </si>
@@ -801,6 +801,24 @@
   </si>
   <si>
     <t>Fecha de Liberaciona fabrica</t>
+  </si>
+  <si>
+    <t>DB_CONCEPTO_GERENTE</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>REL_EVE_CON_SOL</t>
+  </si>
+  <si>
+    <t>DB_ANEXO_ANALISTA</t>
+  </si>
+  <si>
+    <t>EVE_Otorgamiento</t>
+  </si>
+  <si>
+    <t>DB_DECISION_EMPRESARIAL</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1142,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1147,12 +1161,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,11 +1514,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="21">
         <f>IF(B2&lt;&gt;B3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -1521,11 +1539,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="26">
         <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;B4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1546,11 +1564,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1571,11 +1589,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1596,11 +1614,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1621,11 +1639,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1646,11 +1664,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1671,11 +1689,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1696,11 +1714,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1721,11 +1739,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1746,11 +1764,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1771,11 +1789,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1796,11 +1814,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1821,11 +1839,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1846,11 +1864,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1871,11 +1889,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1896,11 +1914,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1921,11 +1939,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1946,11 +1964,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1971,11 +1989,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1996,11 +2014,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2021,11 +2039,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2046,11 +2064,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2071,11 +2089,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2096,11 +2114,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2121,11 +2139,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2146,11 +2164,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2171,11 +2189,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2196,11 +2214,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2221,11 +2239,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2246,11 +2264,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2271,11 +2289,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2296,11 +2314,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2321,11 +2339,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2346,11 +2364,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2371,11 +2389,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2396,11 +2414,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2421,11 +2439,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2446,11 +2464,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2471,11 +2489,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2496,11 +2514,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2521,11 +2539,11 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2546,11 +2564,11 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2571,11 +2589,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2596,11 +2614,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2621,11 +2639,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2646,11 +2664,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2671,11 +2689,11 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2696,11 +2714,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2721,11 +2739,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2746,11 +2764,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2771,11 +2789,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2796,11 +2814,11 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2821,11 +2839,11 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2846,11 +2864,11 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2871,11 +2889,11 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2896,11 +2914,11 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -2921,11 +2939,11 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2946,11 +2964,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2971,11 +2989,11 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2996,11 +3014,11 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3021,11 +3039,11 @@
       </c>
     </row>
     <row r="63" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3046,11 +3064,11 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3071,11 +3089,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3096,11 +3114,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3121,11 +3139,11 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="26">
         <f t="shared" ref="A67:A130" si="1">IF(B67&lt;&gt;B68,1,0)</f>
         <v>1</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3146,11 +3164,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3171,11 +3189,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3196,11 +3214,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3221,11 +3239,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3246,11 +3264,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3271,11 +3289,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3296,11 +3314,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3321,11 +3339,11 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3346,11 +3364,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3371,11 +3389,11 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="41" t="s">
         <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3396,11 +3414,11 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="41" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3421,11 +3439,11 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3446,11 +3464,11 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="41" t="s">
         <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3471,11 +3489,11 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="41" t="s">
         <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3496,11 +3514,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="41" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3521,11 +3539,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="41" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3546,11 +3564,11 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3571,11 +3589,11 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3596,11 +3614,11 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3621,11 +3639,11 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3646,11 +3664,11 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3671,11 +3689,11 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3696,11 +3714,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="41" t="s">
         <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3721,11 +3739,11 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3746,11 +3764,11 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="41" t="s">
         <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3771,11 +3789,11 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="41" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3796,11 +3814,11 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3821,11 +3839,11 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3846,11 +3864,11 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="41" t="s">
         <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3871,11 +3889,11 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3896,11 +3914,11 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3921,11 +3939,11 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="41" t="s">
         <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3946,11 +3964,11 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="41" t="s">
         <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3971,11 +3989,11 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3996,11 +4014,11 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="41" t="s">
         <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -4021,11 +4039,11 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="41" t="s">
         <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -4046,11 +4064,11 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -4071,11 +4089,11 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -4096,11 +4114,11 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4121,11 +4139,11 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="41" t="s">
         <v>137</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -4146,11 +4164,11 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B108" s="29" t="s">
+      <c r="B108" s="41" t="s">
         <v>137</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4171,11 +4189,11 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="41" t="s">
         <v>140</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -4196,11 +4214,11 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4221,11 +4239,11 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4246,11 +4264,11 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -4271,11 +4289,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="41" t="s">
         <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -4296,11 +4314,11 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="41" t="s">
         <v>141</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -4321,11 +4339,11 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="41" t="s">
         <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -4346,11 +4364,11 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="41" t="s">
         <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -4371,11 +4389,11 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="41" t="s">
         <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -4396,11 +4414,11 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="41" t="s">
         <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4421,11 +4439,11 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -4446,11 +4464,11 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4471,11 +4489,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -4496,11 +4514,11 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -4521,11 +4539,11 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -4546,11 +4564,11 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -4571,11 +4589,11 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -4596,11 +4614,11 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -4621,11 +4639,11 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -4646,11 +4664,11 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -4671,11 +4689,11 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -4696,11 +4714,11 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -4721,11 +4739,11 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="26">
         <f t="shared" ref="A131:A194" si="2">IF(B131&lt;&gt;B132,1,0)</f>
         <v>0</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4746,11 +4764,11 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -4771,11 +4789,11 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -4796,11 +4814,11 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -4821,11 +4839,11 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B135" s="26" t="s">
+      <c r="B135" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -4846,11 +4864,11 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B136" s="26" t="s">
+      <c r="B136" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -4871,11 +4889,11 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="B137" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -4896,11 +4914,11 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -4921,11 +4939,11 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B139" s="26" t="s">
+      <c r="B139" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -4946,11 +4964,11 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4971,11 +4989,11 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -4996,11 +5014,11 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -5021,11 +5039,11 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -5046,11 +5064,11 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="B144" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -5071,11 +5089,11 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -5096,11 +5114,11 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="B146" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -5121,11 +5139,11 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="B147" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -5146,11 +5164,11 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -5171,11 +5189,11 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -5196,11 +5214,11 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -5221,11 +5239,11 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B151" s="26" t="s">
+      <c r="B151" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -5246,11 +5264,11 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B152" s="26" t="s">
+      <c r="B152" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -5271,11 +5289,11 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B153" s="26" t="s">
+      <c r="B153" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -5296,11 +5314,11 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -5321,11 +5339,11 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B155" s="26" t="s">
+      <c r="B155" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -5346,11 +5364,11 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -5371,11 +5389,11 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -5396,11 +5414,11 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B158" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -5419,11 +5437,11 @@
       <c r="H158" s="27"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B159" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -5442,11 +5460,11 @@
       <c r="H159" s="27"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -5465,11 +5483,11 @@
       <c r="H160" s="27"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -5488,11 +5506,11 @@
       <c r="H161" s="27"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -5511,11 +5529,11 @@
       <c r="H162" s="27"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B163" s="26" t="s">
+      <c r="B163" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -5531,14 +5549,14 @@
         <v>5</v>
       </c>
       <c r="G163" s="2"/>
-      <c r="H163" s="30"/>
+      <c r="H163" s="28"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -5554,14 +5572,14 @@
         <v>5</v>
       </c>
       <c r="G164" s="2"/>
-      <c r="H164" s="30"/>
+      <c r="H164" s="28"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B165" s="26" t="s">
+      <c r="B165" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -5577,14 +5595,14 @@
         <v>5</v>
       </c>
       <c r="G165" s="2"/>
-      <c r="H165" s="30"/>
+      <c r="H165" s="28"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -5600,14 +5618,14 @@
         <v>5</v>
       </c>
       <c r="G166" s="2"/>
-      <c r="H166" s="30"/>
+      <c r="H166" s="28"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -5623,14 +5641,14 @@
         <v>5</v>
       </c>
       <c r="G167" s="2"/>
-      <c r="H167" s="30"/>
+      <c r="H167" s="28"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C168" s="4" t="s">
@@ -5646,14 +5664,14 @@
         <v>5</v>
       </c>
       <c r="G168" s="2"/>
-      <c r="H168" s="30"/>
+      <c r="H168" s="28"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B169" s="26" t="s">
+      <c r="B169" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -5669,14 +5687,14 @@
         <v>5</v>
       </c>
       <c r="G169" s="2"/>
-      <c r="H169" s="30"/>
+      <c r="H169" s="28"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B170" s="26" t="s">
+      <c r="B170" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -5692,14 +5710,14 @@
         <v>5</v>
       </c>
       <c r="G170" s="2"/>
-      <c r="H170" s="30"/>
+      <c r="H170" s="28"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B171" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -5715,14 +5733,14 @@
         <v>5</v>
       </c>
       <c r="G171" s="2"/>
-      <c r="H171" s="30"/>
+      <c r="H171" s="28"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -5738,14 +5756,14 @@
         <v>5</v>
       </c>
       <c r="G172" s="2"/>
-      <c r="H172" s="30"/>
+      <c r="H172" s="28"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B173" s="26" t="s">
+      <c r="B173" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C173" s="4" t="s">
@@ -5761,14 +5779,14 @@
         <v>5</v>
       </c>
       <c r="G173" s="2"/>
-      <c r="H173" s="30"/>
+      <c r="H173" s="28"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B174" s="26" t="s">
+      <c r="B174" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -5784,14 +5802,14 @@
         <v>5</v>
       </c>
       <c r="G174" s="2"/>
-      <c r="H174" s="30"/>
+      <c r="H174" s="28"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -5807,14 +5825,14 @@
         <v>5</v>
       </c>
       <c r="G175" s="2"/>
-      <c r="H175" s="30"/>
+      <c r="H175" s="28"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B176" s="26" t="s">
+      <c r="B176" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -5830,14 +5848,14 @@
         <v>5</v>
       </c>
       <c r="G176" s="2"/>
-      <c r="H176" s="30"/>
+      <c r="H176" s="28"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B177" s="26" t="s">
+      <c r="B177" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -5853,14 +5871,14 @@
         <v>5</v>
       </c>
       <c r="G177" s="2"/>
-      <c r="H177" s="30"/>
+      <c r="H177" s="28"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B178" s="26" t="s">
+      <c r="B178" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -5876,14 +5894,14 @@
         <v>5</v>
       </c>
       <c r="G178" s="2"/>
-      <c r="H178" s="30"/>
+      <c r="H178" s="28"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B179" s="26" t="s">
+      <c r="B179" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -5899,14 +5917,14 @@
         <v>5</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="30"/>
+      <c r="H179" s="28"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B180" s="26" t="s">
+      <c r="B180" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -5922,14 +5940,14 @@
         <v>5</v>
       </c>
       <c r="G180" s="2"/>
-      <c r="H180" s="30"/>
+      <c r="H180" s="28"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B181" s="26" t="s">
+      <c r="B181" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -5945,14 +5963,14 @@
         <v>5</v>
       </c>
       <c r="G181" s="2"/>
-      <c r="H181" s="30"/>
+      <c r="H181" s="28"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -5968,14 +5986,14 @@
         <v>5</v>
       </c>
       <c r="G182" s="2"/>
-      <c r="H182" s="30"/>
+      <c r="H182" s="28"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B183" s="26" t="s">
+      <c r="B183" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -5991,14 +6009,14 @@
         <v>5</v>
       </c>
       <c r="G183" s="2"/>
-      <c r="H183" s="30"/>
+      <c r="H183" s="28"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B184" s="26" t="s">
+      <c r="B184" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -6014,14 +6032,14 @@
         <v>5</v>
       </c>
       <c r="G184" s="2"/>
-      <c r="H184" s="30"/>
+      <c r="H184" s="28"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B185" s="26" t="s">
+      <c r="B185" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -6037,14 +6055,14 @@
         <v>5</v>
       </c>
       <c r="G185" s="2"/>
-      <c r="H185" s="30"/>
+      <c r="H185" s="28"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -6060,14 +6078,14 @@
         <v>5</v>
       </c>
       <c r="G186" s="2"/>
-      <c r="H186" s="30"/>
+      <c r="H186" s="28"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B187" s="26" t="s">
+      <c r="B187" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -6083,14 +6101,14 @@
         <v>5</v>
       </c>
       <c r="G187" s="2"/>
-      <c r="H187" s="30"/>
+      <c r="H187" s="28"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B188" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -6106,14 +6124,14 @@
         <v>5</v>
       </c>
       <c r="G188" s="2"/>
-      <c r="H188" s="30"/>
+      <c r="H188" s="28"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -6129,14 +6147,14 @@
         <v>5</v>
       </c>
       <c r="G189" s="2"/>
-      <c r="H189" s="30"/>
+      <c r="H189" s="28"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B190" s="26" t="s">
+      <c r="B190" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -6152,14 +6170,14 @@
         <v>5</v>
       </c>
       <c r="G190" s="2"/>
-      <c r="H190" s="30"/>
+      <c r="H190" s="28"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B191" s="26" t="s">
+      <c r="B191" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -6175,14 +6193,14 @@
         <v>5</v>
       </c>
       <c r="G191" s="2"/>
-      <c r="H191" s="30"/>
+      <c r="H191" s="28"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B192" s="26" t="s">
+      <c r="B192" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -6198,14 +6216,14 @@
         <v>5</v>
       </c>
       <c r="G192" s="2"/>
-      <c r="H192" s="30"/>
+      <c r="H192" s="28"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -6221,14 +6239,14 @@
         <v>5</v>
       </c>
       <c r="G193" s="2"/>
-      <c r="H193" s="30"/>
+      <c r="H193" s="28"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -6244,14 +6262,14 @@
         <v>5</v>
       </c>
       <c r="G194" s="2"/>
-      <c r="H194" s="30"/>
+      <c r="H194" s="28"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="26">
         <f t="shared" ref="A195:A258" si="3">IF(B195&lt;&gt;B196,1,0)</f>
         <v>1</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -6267,14 +6285,14 @@
         <v>5</v>
       </c>
       <c r="G195" s="2"/>
-      <c r="H195" s="30"/>
+      <c r="H195" s="28"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C196" s="4" t="s">
@@ -6290,14 +6308,14 @@
         <v>5</v>
       </c>
       <c r="G196" s="2"/>
-      <c r="H196" s="30"/>
+      <c r="H196" s="28"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C197" s="4" t="s">
@@ -6313,14 +6331,14 @@
         <v>5</v>
       </c>
       <c r="G197" s="2"/>
-      <c r="H197" s="30"/>
+      <c r="H197" s="28"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -6336,14 +6354,14 @@
         <v>5</v>
       </c>
       <c r="G198" s="2"/>
-      <c r="H198" s="30"/>
+      <c r="H198" s="28"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B199" s="26" t="s">
+      <c r="B199" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -6359,14 +6377,14 @@
         <v>5</v>
       </c>
       <c r="G199" s="2"/>
-      <c r="H199" s="30"/>
+      <c r="H199" s="28"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B200" s="26" t="s">
+      <c r="B200" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -6382,14 +6400,14 @@
         <v>5</v>
       </c>
       <c r="G200" s="2"/>
-      <c r="H200" s="30"/>
+      <c r="H200" s="28"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="B201" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C201" s="4" t="s">
@@ -6405,14 +6423,14 @@
         <v>5</v>
       </c>
       <c r="G201" s="2"/>
-      <c r="H201" s="30"/>
+      <c r="H201" s="28"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B202" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -6428,14 +6446,14 @@
         <v>5</v>
       </c>
       <c r="G202" s="2"/>
-      <c r="H202" s="30"/>
+      <c r="H202" s="28"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B203" s="26" t="s">
+      <c r="B203" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -6451,14 +6469,14 @@
         <v>5</v>
       </c>
       <c r="G203" s="2"/>
-      <c r="H203" s="30"/>
+      <c r="H203" s="28"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B204" s="26" t="s">
+      <c r="B204" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -6474,14 +6492,14 @@
         <v>5</v>
       </c>
       <c r="G204" s="2"/>
-      <c r="H204" s="30"/>
+      <c r="H204" s="28"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B205" s="26" t="s">
+      <c r="B205" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -6497,14 +6515,14 @@
         <v>5</v>
       </c>
       <c r="G205" s="2"/>
-      <c r="H205" s="30"/>
+      <c r="H205" s="28"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B206" s="26" t="s">
+      <c r="B206" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C206" s="4" t="s">
@@ -6520,14 +6538,14 @@
         <v>5</v>
       </c>
       <c r="G206" s="2"/>
-      <c r="H206" s="30"/>
+      <c r="H206" s="28"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="B207" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -6543,14 +6561,14 @@
         <v>5</v>
       </c>
       <c r="G207" s="2"/>
-      <c r="H207" s="30"/>
+      <c r="H207" s="28"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="B208" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -6566,14 +6584,14 @@
         <v>5</v>
       </c>
       <c r="G208" s="2"/>
-      <c r="H208" s="30"/>
+      <c r="H208" s="28"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="B209" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -6589,14 +6607,14 @@
         <v>5</v>
       </c>
       <c r="G209" s="2"/>
-      <c r="H209" s="30"/>
+      <c r="H209" s="28"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B210" s="26" t="s">
+      <c r="B210" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -6612,14 +6630,14 @@
         <v>5</v>
       </c>
       <c r="G210" s="2"/>
-      <c r="H210" s="30"/>
+      <c r="H210" s="28"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B211" s="26" t="s">
+      <c r="B211" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -6635,14 +6653,14 @@
         <v>5</v>
       </c>
       <c r="G211" s="2"/>
-      <c r="H211" s="30"/>
+      <c r="H211" s="28"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B212" s="26" t="s">
+      <c r="B212" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -6658,14 +6676,14 @@
         <v>5</v>
       </c>
       <c r="G212" s="2"/>
-      <c r="H212" s="30"/>
+      <c r="H212" s="28"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B213" s="26" t="s">
+      <c r="B213" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -6681,14 +6699,14 @@
         <v>5</v>
       </c>
       <c r="G213" s="2"/>
-      <c r="H213" s="30"/>
+      <c r="H213" s="28"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B214" s="26" t="s">
+      <c r="B214" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -6704,14 +6722,14 @@
         <v>5</v>
       </c>
       <c r="G214" s="2"/>
-      <c r="H214" s="30"/>
+      <c r="H214" s="28"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B215" s="26" t="s">
+      <c r="B215" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -6727,14 +6745,14 @@
         <v>5</v>
       </c>
       <c r="G215" s="2"/>
-      <c r="H215" s="30"/>
+      <c r="H215" s="28"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B216" s="26" t="s">
+      <c r="B216" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -6750,14 +6768,14 @@
         <v>5</v>
       </c>
       <c r="G216" s="2"/>
-      <c r="H216" s="30"/>
+      <c r="H216" s="28"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B217" s="26" t="s">
+      <c r="B217" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -6773,14 +6791,14 @@
         <v>5</v>
       </c>
       <c r="G217" s="2"/>
-      <c r="H217" s="30"/>
+      <c r="H217" s="28"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B218" s="26" t="s">
+      <c r="B218" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -6796,14 +6814,14 @@
         <v>5</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" s="30"/>
+      <c r="H218" s="28"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -6819,14 +6837,14 @@
         <v>5</v>
       </c>
       <c r="G219" s="2"/>
-      <c r="H219" s="30"/>
+      <c r="H219" s="28"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B220" s="26" t="s">
+      <c r="B220" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -6842,14 +6860,14 @@
         <v>5</v>
       </c>
       <c r="G220" s="2"/>
-      <c r="H220" s="30"/>
+      <c r="H220" s="28"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B221" s="26" t="s">
+      <c r="B221" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -6865,14 +6883,14 @@
         <v>5</v>
       </c>
       <c r="G221" s="2"/>
-      <c r="H221" s="30"/>
+      <c r="H221" s="28"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B222" s="26" t="s">
+      <c r="B222" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -6888,14 +6906,14 @@
         <v>5</v>
       </c>
       <c r="G222" s="2"/>
-      <c r="H222" s="30"/>
+      <c r="H222" s="28"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B223" s="26" t="s">
+      <c r="B223" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -6911,14 +6929,14 @@
         <v>5</v>
       </c>
       <c r="G223" s="2"/>
-      <c r="H223" s="30"/>
+      <c r="H223" s="28"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B224" s="26" t="s">
+      <c r="B224" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -6934,14 +6952,14 @@
         <v>5</v>
       </c>
       <c r="G224" s="2"/>
-      <c r="H224" s="30"/>
+      <c r="H224" s="28"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B225" s="26" t="s">
+      <c r="B225" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -6957,14 +6975,14 @@
         <v>5</v>
       </c>
       <c r="G225" s="2"/>
-      <c r="H225" s="30"/>
+      <c r="H225" s="28"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B226" s="26" t="s">
+      <c r="B226" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -6980,14 +6998,14 @@
         <v>5</v>
       </c>
       <c r="G226" s="2"/>
-      <c r="H226" s="30"/>
+      <c r="H226" s="28"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B227" s="26" t="s">
+      <c r="B227" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -7003,14 +7021,14 @@
         <v>5</v>
       </c>
       <c r="G227" s="2"/>
-      <c r="H227" s="30"/>
+      <c r="H227" s="28"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B228" s="26" t="s">
+      <c r="B228" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -7026,14 +7044,14 @@
         <v>5</v>
       </c>
       <c r="G228" s="2"/>
-      <c r="H228" s="30"/>
+      <c r="H228" s="28"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B229" s="26" t="s">
+      <c r="B229" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -7045,16 +7063,18 @@
       <c r="E229" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F229" s="2"/>
+      <c r="F229" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G229" s="2"/>
-      <c r="H229" s="30"/>
+      <c r="H229" s="28"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B230" s="26" t="s">
+      <c r="B230" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -7066,16 +7086,18 @@
       <c r="E230" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F230" s="2"/>
+      <c r="F230" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G230" s="2"/>
-      <c r="H230" s="30"/>
+      <c r="H230" s="28"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B231" s="26" t="s">
+      <c r="B231" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -7087,16 +7109,18 @@
       <c r="E231" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F231" s="2"/>
+      <c r="F231" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G231" s="2"/>
-      <c r="H231" s="30"/>
+      <c r="H231" s="28"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B232" s="26" t="s">
+      <c r="B232" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -7108,16 +7132,18 @@
       <c r="E232" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F232" s="2"/>
+      <c r="F232" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G232" s="2"/>
-      <c r="H232" s="30"/>
+      <c r="H232" s="28"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B233" s="26" t="s">
+      <c r="B233" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -7129,16 +7155,18 @@
       <c r="E233" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F233" s="2"/>
+      <c r="F233" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G233" s="2"/>
-      <c r="H233" s="30"/>
+      <c r="H233" s="28"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B234" s="26" t="s">
+      <c r="B234" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -7150,16 +7178,18 @@
       <c r="E234" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F234" s="2"/>
+      <c r="F234" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G234" s="2"/>
-      <c r="H234" s="30"/>
+      <c r="H234" s="28"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B235" s="26" t="s">
+      <c r="B235" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -7171,16 +7201,18 @@
       <c r="E235" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F235" s="2"/>
+      <c r="F235" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G235" s="2"/>
-      <c r="H235" s="30"/>
+      <c r="H235" s="28"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B236" s="26" t="s">
+      <c r="B236" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -7192,16 +7224,18 @@
       <c r="E236" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F236" s="2"/>
+      <c r="F236" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G236" s="2"/>
-      <c r="H236" s="30"/>
+      <c r="H236" s="28"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B237" s="26" t="s">
+      <c r="B237" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -7213,16 +7247,18 @@
       <c r="E237" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F237" s="2"/>
+      <c r="F237" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G237" s="2"/>
-      <c r="H237" s="30"/>
+      <c r="H237" s="28"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B238" s="26" t="s">
+      <c r="B238" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -7234,16 +7270,18 @@
       <c r="E238" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F238" s="2"/>
+      <c r="F238" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G238" s="2"/>
-      <c r="H238" s="30"/>
+      <c r="H238" s="28"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B239" s="26" t="s">
+      <c r="B239" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -7255,16 +7293,18 @@
       <c r="E239" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F239" s="2"/>
+      <c r="F239" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G239" s="2"/>
-      <c r="H239" s="30"/>
+      <c r="H239" s="28"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B240" s="26" t="s">
+      <c r="B240" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -7276,16 +7316,18 @@
       <c r="E240" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F240" s="2"/>
+      <c r="F240" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G240" s="2"/>
-      <c r="H240" s="30"/>
+      <c r="H240" s="28"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B241" s="26" t="s">
+      <c r="B241" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -7297,16 +7339,18 @@
       <c r="E241" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F241" s="2"/>
+      <c r="F241" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G241" s="2"/>
-      <c r="H241" s="30"/>
+      <c r="H241" s="28"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B242" s="26" t="s">
+      <c r="B242" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -7318,16 +7362,18 @@
       <c r="E242" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F242" s="2"/>
+      <c r="F242" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G242" s="2"/>
-      <c r="H242" s="30"/>
+      <c r="H242" s="28"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B243" s="26" t="s">
+      <c r="B243" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -7339,16 +7385,18 @@
       <c r="E243" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F243" s="2"/>
+      <c r="F243" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G243" s="2"/>
-      <c r="H243" s="30"/>
+      <c r="H243" s="28"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B244" s="26" t="s">
+      <c r="B244" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -7360,16 +7408,18 @@
       <c r="E244" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F244" s="2"/>
+      <c r="F244" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G244" s="2"/>
-      <c r="H244" s="30"/>
+      <c r="H244" s="28"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B245" s="26" t="s">
+      <c r="B245" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -7381,16 +7431,18 @@
       <c r="E245" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F245" s="2"/>
+      <c r="F245" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G245" s="2"/>
-      <c r="H245" s="30"/>
+      <c r="H245" s="28"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B246" s="26" t="s">
+      <c r="B246" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -7402,16 +7454,18 @@
       <c r="E246" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F246" s="2"/>
+      <c r="F246" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G246" s="2"/>
-      <c r="H246" s="30"/>
+      <c r="H246" s="28"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B247" s="26" t="s">
+      <c r="B247" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -7423,16 +7477,18 @@
       <c r="E247" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F247" s="2"/>
+      <c r="F247" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G247" s="2"/>
-      <c r="H247" s="30"/>
+      <c r="H247" s="28"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B248" s="26" t="s">
+      <c r="B248" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -7444,16 +7500,18 @@
       <c r="E248" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F248" s="2"/>
+      <c r="F248" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G248" s="2"/>
-      <c r="H248" s="30"/>
+      <c r="H248" s="28"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B249" s="26" t="s">
+      <c r="B249" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -7465,16 +7523,18 @@
       <c r="E249" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F249" s="2"/>
+      <c r="F249" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G249" s="2"/>
-      <c r="H249" s="30"/>
+      <c r="H249" s="28"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B250" s="26" t="s">
+      <c r="B250" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -7486,16 +7546,18 @@
       <c r="E250" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F250" s="2"/>
+      <c r="F250" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G250" s="2"/>
-      <c r="H250" s="30"/>
+      <c r="H250" s="28"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B251" s="26" t="s">
+      <c r="B251" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -7507,16 +7569,18 @@
       <c r="E251" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F251" s="2"/>
+      <c r="F251" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G251" s="2"/>
-      <c r="H251" s="30"/>
+      <c r="H251" s="28"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B252" s="26" t="s">
+      <c r="B252" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -7528,16 +7592,18 @@
       <c r="E252" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F252" s="2"/>
+      <c r="F252" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G252" s="2"/>
-      <c r="H252" s="30"/>
+      <c r="H252" s="28"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B253" s="26" t="s">
+      <c r="B253" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -7549,16 +7615,18 @@
       <c r="E253" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F253" s="2"/>
+      <c r="F253" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G253" s="2"/>
-      <c r="H253" s="30"/>
+      <c r="H253" s="28"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B254" s="26" t="s">
+      <c r="B254" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -7570,16 +7638,18 @@
       <c r="E254" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F254" s="2"/>
+      <c r="F254" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G254" s="2"/>
-      <c r="H254" s="30"/>
+      <c r="H254" s="28"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B255" s="26" t="s">
+      <c r="B255" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -7591,16 +7661,18 @@
       <c r="E255" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F255" s="2"/>
+      <c r="F255" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G255" s="2"/>
-      <c r="H255" s="30"/>
+      <c r="H255" s="28"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B256" s="26" t="s">
+      <c r="B256" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -7612,16 +7684,18 @@
       <c r="E256" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F256" s="2"/>
+      <c r="F256" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G256" s="2"/>
-      <c r="H256" s="30"/>
+      <c r="H256" s="28"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B257" s="26" t="s">
+      <c r="B257" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -7633,16 +7707,18 @@
       <c r="E257" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F257" s="2"/>
+      <c r="F257" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G257" s="2"/>
-      <c r="H257" s="30"/>
+      <c r="H257" s="28"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B258" s="26" t="s">
+      <c r="B258" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -7654,16 +7730,18 @@
       <c r="E258" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F258" s="2"/>
+      <c r="F258" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G258" s="2"/>
-      <c r="H258" s="30"/>
+      <c r="H258" s="28"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <f t="shared" ref="A259:A300" si="4">IF(B259&lt;&gt;B260,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B259" s="26" t="s">
+      <c r="A259" s="26">
+        <f t="shared" ref="A259:A306" si="4">IF(B259&lt;&gt;B260,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -7675,16 +7753,18 @@
       <c r="E259" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F259" s="2"/>
+      <c r="F259" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G259" s="2"/>
-      <c r="H259" s="30"/>
+      <c r="H259" s="28"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B260" s="26" t="s">
+      <c r="B260" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -7696,16 +7776,18 @@
       <c r="E260" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F260" s="2"/>
+      <c r="F260" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G260" s="2"/>
-      <c r="H260" s="30"/>
+      <c r="H260" s="28"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B261" s="26" t="s">
+      <c r="B261" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -7717,16 +7799,18 @@
       <c r="E261" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F261" s="2"/>
+      <c r="F261" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G261" s="2"/>
-      <c r="H261" s="30"/>
+      <c r="H261" s="28"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B262" s="26" t="s">
+      <c r="B262" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -7738,16 +7822,18 @@
       <c r="E262" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F262" s="2"/>
+      <c r="F262" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G262" s="2"/>
-      <c r="H262" s="30"/>
+      <c r="H262" s="28"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B263" s="26" t="s">
+      <c r="B263" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -7759,16 +7845,18 @@
       <c r="E263" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F263" s="2"/>
+      <c r="F263" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G263" s="2"/>
-      <c r="H263" s="30"/>
+      <c r="H263" s="28"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B264" s="26" t="s">
+      <c r="B264" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -7780,16 +7868,18 @@
       <c r="E264" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F264" s="2"/>
+      <c r="F264" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G264" s="2"/>
-      <c r="H264" s="30"/>
+      <c r="H264" s="28"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B265" s="26" t="s">
+      <c r="B265" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -7801,16 +7891,18 @@
       <c r="E265" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F265" s="2"/>
+      <c r="F265" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G265" s="2"/>
-      <c r="H265" s="30"/>
+      <c r="H265" s="28"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B266" s="26" t="s">
+      <c r="B266" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -7822,16 +7914,18 @@
       <c r="E266" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F266" s="2"/>
+      <c r="F266" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G266" s="2"/>
-      <c r="H266" s="30"/>
+      <c r="H266" s="28"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B267" s="26" t="s">
+      <c r="B267" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -7843,16 +7937,18 @@
       <c r="E267" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F267" s="2"/>
+      <c r="F267" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G267" s="2"/>
-      <c r="H267" s="30"/>
+      <c r="H267" s="28"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B268" s="26" t="s">
+      <c r="B268" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -7864,16 +7960,18 @@
       <c r="E268" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F268" s="2"/>
+      <c r="F268" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G268" s="2"/>
-      <c r="H268" s="30"/>
+      <c r="H268" s="28"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B269" s="26" t="s">
+      <c r="B269" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -7885,16 +7983,18 @@
       <c r="E269" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F269" s="2"/>
+      <c r="F269" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G269" s="2"/>
-      <c r="H269" s="30"/>
+      <c r="H269" s="28"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B270" s="26" t="s">
+      <c r="B270" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -7906,16 +8006,18 @@
       <c r="E270" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F270" s="2"/>
+      <c r="F270" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G270" s="2"/>
-      <c r="H270" s="30"/>
+      <c r="H270" s="28"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B271" s="26" t="s">
+      <c r="B271" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -7927,16 +8029,18 @@
       <c r="E271" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F271" s="2"/>
+      <c r="F271" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G271" s="2"/>
-      <c r="H271" s="30"/>
+      <c r="H271" s="28"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B272" s="26" t="s">
+      <c r="B272" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -7948,16 +8052,18 @@
       <c r="E272" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F272" s="2"/>
+      <c r="F272" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G272" s="2"/>
-      <c r="H272" s="30"/>
+      <c r="H272" s="28"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B273" s="26" t="s">
+      <c r="B273" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -7969,16 +8075,18 @@
       <c r="E273" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F273" s="2"/>
+      <c r="F273" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G273" s="2"/>
-      <c r="H273" s="30"/>
+      <c r="H273" s="28"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B274" s="26" t="s">
+      <c r="B274" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -7990,16 +8098,18 @@
       <c r="E274" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F274" s="2"/>
+      <c r="F274" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G274" s="2"/>
-      <c r="H274" s="30"/>
+      <c r="H274" s="28"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B275" s="26" t="s">
+      <c r="B275" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -8011,16 +8121,18 @@
       <c r="E275" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F275" s="2"/>
+      <c r="F275" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G275" s="2"/>
-      <c r="H275" s="30"/>
+      <c r="H275" s="28"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B276" s="26" t="s">
+      <c r="B276" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -8032,16 +8144,18 @@
       <c r="E276" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F276" s="2"/>
+      <c r="F276" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G276" s="2"/>
-      <c r="H276" s="30"/>
+      <c r="H276" s="28"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B277" s="26" t="s">
+      <c r="B277" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -8053,16 +8167,18 @@
       <c r="E277" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F277" s="2"/>
+      <c r="F277" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G277" s="2"/>
-      <c r="H277" s="30"/>
+      <c r="H277" s="28"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B278" s="26" t="s">
+      <c r="B278" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -8074,16 +8190,18 @@
       <c r="E278" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F278" s="2"/>
+      <c r="F278" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G278" s="2"/>
-      <c r="H278" s="30"/>
+      <c r="H278" s="28"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B279" s="26" t="s">
+      <c r="B279" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -8095,16 +8213,18 @@
       <c r="E279" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F279" s="2"/>
+      <c r="F279" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G279" s="2"/>
-      <c r="H279" s="30"/>
+      <c r="H279" s="28"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B280" s="26" t="s">
+      <c r="B280" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -8116,16 +8236,18 @@
       <c r="E280" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F280" s="2"/>
+      <c r="F280" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G280" s="2"/>
-      <c r="H280" s="30"/>
+      <c r="H280" s="28"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B281" s="26" t="s">
+      <c r="B281" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -8137,16 +8259,18 @@
       <c r="E281" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F281" s="2"/>
+      <c r="F281" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G281" s="2"/>
-      <c r="H281" s="30"/>
+      <c r="H281" s="28"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B282" s="26" t="s">
+      <c r="B282" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -8158,16 +8282,18 @@
       <c r="E282" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F282" s="2"/>
+      <c r="F282" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G282" s="2"/>
-      <c r="H282" s="30"/>
+      <c r="H282" s="28"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B283" s="26" t="s">
+      <c r="B283" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -8179,16 +8305,18 @@
       <c r="E283" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F283" s="2"/>
+      <c r="F283" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G283" s="2"/>
-      <c r="H283" s="30"/>
+      <c r="H283" s="28"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B284" s="26" t="s">
+      <c r="B284" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C284" s="2" t="s">
@@ -8200,16 +8328,18 @@
       <c r="E284" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F284" s="2"/>
+      <c r="F284" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G284" s="2"/>
-      <c r="H284" s="30"/>
+      <c r="H284" s="28"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B285" s="26" t="s">
+      <c r="B285" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -8221,16 +8351,18 @@
       <c r="E285" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F285" s="2"/>
+      <c r="F285" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G285" s="2"/>
-      <c r="H285" s="30"/>
+      <c r="H285" s="28"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B286" s="26" t="s">
+      <c r="B286" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -8242,16 +8374,18 @@
       <c r="E286" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F286" s="2"/>
+      <c r="F286" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G286" s="2"/>
-      <c r="H286" s="30"/>
+      <c r="H286" s="28"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B287" s="26" t="s">
+      <c r="B287" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -8263,16 +8397,18 @@
       <c r="E287" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F287" s="2"/>
+      <c r="F287" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G287" s="2"/>
-      <c r="H287" s="30"/>
+      <c r="H287" s="28"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B288" s="26" t="s">
+      <c r="B288" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -8284,16 +8420,18 @@
       <c r="E288" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F288" s="2"/>
+      <c r="F288" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G288" s="2"/>
-      <c r="H288" s="30"/>
+      <c r="H288" s="28"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B289" s="26" t="s">
+      <c r="B289" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C289" s="2" t="s">
@@ -8305,16 +8443,18 @@
       <c r="E289" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F289" s="2"/>
+      <c r="F289" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G289" s="2"/>
-      <c r="H289" s="30"/>
+      <c r="H289" s="28"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B290" s="26" t="s">
+      <c r="B290" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -8326,16 +8466,18 @@
       <c r="E290" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F290" s="2"/>
+      <c r="F290" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G290" s="2"/>
-      <c r="H290" s="30"/>
+      <c r="H290" s="28"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B291" s="26" t="s">
+      <c r="B291" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -8347,16 +8489,18 @@
       <c r="E291" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F291" s="2"/>
+      <c r="F291" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G291" s="2"/>
-      <c r="H291" s="30"/>
+      <c r="H291" s="28"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B292" s="26" t="s">
+      <c r="B292" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -8368,16 +8512,18 @@
       <c r="E292" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F292" s="2"/>
+      <c r="F292" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G292" s="2"/>
-      <c r="H292" s="30"/>
+      <c r="H292" s="28"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B293" s="26" t="s">
+      <c r="B293" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -8389,16 +8535,18 @@
       <c r="E293" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F293" s="2"/>
+      <c r="F293" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G293" s="2"/>
-      <c r="H293" s="30"/>
+      <c r="H293" s="28"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B294" s="26" t="s">
+      <c r="B294" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -8410,16 +8558,18 @@
       <c r="E294" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F294" s="2"/>
+      <c r="F294" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G294" s="2"/>
-      <c r="H294" s="30"/>
+      <c r="H294" s="28"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B295" s="26" t="s">
+      <c r="B295" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -8431,16 +8581,18 @@
       <c r="E295" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F295" s="2"/>
+      <c r="F295" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G295" s="2"/>
-      <c r="H295" s="30"/>
+      <c r="H295" s="28"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B296" s="26" t="s">
+      <c r="B296" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -8452,16 +8604,18 @@
       <c r="E296" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F296" s="2"/>
+      <c r="F296" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G296" s="2"/>
-      <c r="H296" s="30"/>
+      <c r="H296" s="28"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B297" s="26" t="s">
+      <c r="B297" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -8473,16 +8627,18 @@
       <c r="E297" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F297" s="2"/>
+      <c r="F297" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G297" s="2"/>
-      <c r="H297" s="30"/>
+      <c r="H297" s="28"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B298" s="26" t="s">
+      <c r="B298" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -8494,16 +8650,18 @@
       <c r="E298" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F298" s="2"/>
+      <c r="F298" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G298" s="2"/>
-      <c r="H298" s="30"/>
+      <c r="H298" s="28"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B299" s="26" t="s">
+      <c r="B299" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -8515,30 +8673,172 @@
       <c r="E299" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F299" s="2"/>
+      <c r="F299" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G299" s="2"/>
-      <c r="H299" s="30"/>
-    </row>
-    <row r="300" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300">
+      <c r="H299" s="28"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B300" s="31" t="s">
+      <c r="B300" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C300" s="32" t="s">
+      <c r="C300" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E300" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F300" s="32"/>
-      <c r="G300" s="32"/>
-      <c r="H300" s="34"/>
+      <c r="E300" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G300" s="2"/>
+      <c r="H300" s="28"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G301" s="2"/>
+      <c r="H301" s="28"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G302" s="2"/>
+      <c r="H302" s="28"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G303" s="2"/>
+      <c r="H303" s="28"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G304" s="2"/>
+      <c r="H304" s="28"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G305" s="2"/>
+      <c r="H305" s="28"/>
+    </row>
+    <row r="306" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B306" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C306" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D306" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="E306" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G306" s="30"/>
+      <c r="H306" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8609,13 +8909,13 @@
       <c r="A3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>168</v>
       </c>
       <c r="Q3" t="s">
@@ -8757,371 +9057,501 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -9146,136 +9576,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de fuentes y dependencias" sheetId="1" r:id="rId1"/>
     <sheet name="Modulos x Subject" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista de fuentes y dependencias'!$B$1:$H$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista de fuentes y dependencias'!$A$1:$H$306</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -920,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1074,26 +1074,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,9 +1093,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,14 +1124,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1167,10 +1151,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,7 +1455,7 @@
   <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,55 +1471,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <f>IF(B2&lt;&gt;B3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="25">
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="24">
         <v>42612</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;B4,1,0)</f>
         <v>1</v>
       </c>
@@ -1559,12 +1539,12 @@
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>42612</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1584,12 +1564,12 @@
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <v>42612</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1609,12 +1589,12 @@
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1634,12 +1614,12 @@
         <v>5</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1659,12 +1639,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1684,12 +1664,12 @@
         <v>5</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1709,12 +1689,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1734,12 +1714,12 @@
         <v>5</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1759,12 +1739,12 @@
         <v>5</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1784,12 +1764,12 @@
         <v>5</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1809,12 +1789,12 @@
         <v>5</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1834,12 +1814,12 @@
         <v>5</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="27">
+      <c r="H14" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1859,12 +1839,12 @@
         <v>5</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="27">
+      <c r="H15" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1884,12 +1864,12 @@
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1909,12 +1889,12 @@
         <v>5</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1934,12 +1914,12 @@
         <v>5</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+    <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1959,12 +1939,12 @@
         <v>5</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+    <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1984,12 +1964,12 @@
         <v>5</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="27">
+      <c r="H20" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+    <row r="21" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2009,12 +1989,12 @@
         <v>5</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2034,12 +2014,12 @@
         <v>5</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+    <row r="23" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2059,12 +2039,12 @@
         <v>5</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+    <row r="24" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2084,12 +2064,12 @@
         <v>5</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2109,12 +2089,12 @@
         <v>5</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+    <row r="26" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2134,12 +2114,12 @@
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+    <row r="27" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2159,12 +2139,12 @@
         <v>5</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="27">
+      <c r="H27" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+    <row r="28" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2184,12 +2164,12 @@
         <v>5</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+    <row r="29" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2209,12 +2189,12 @@
         <v>5</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="27">
+      <c r="H29" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+    <row r="30" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2234,12 +2214,12 @@
         <v>5</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="27">
+      <c r="H30" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+    <row r="31" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2259,12 +2239,12 @@
         <v>5</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="27">
+      <c r="H31" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+    <row r="32" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2284,12 +2264,12 @@
         <v>5</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="27">
+      <c r="H32" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+    <row r="33" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2309,12 +2289,12 @@
         <v>5</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="27">
+      <c r="H33" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+    <row r="34" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2334,12 +2314,12 @@
         <v>5</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+    <row r="35" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2359,12 +2339,12 @@
         <v>5</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="27">
+      <c r="H35" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+    <row r="36" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2384,12 +2364,12 @@
         <v>5</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="27">
+      <c r="H36" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
+    <row r="37" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2409,12 +2389,12 @@
         <v>5</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="27">
+      <c r="H37" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+    <row r="38" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2434,12 +2414,12 @@
         <v>5</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
+    <row r="39" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2459,12 +2439,12 @@
         <v>5</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="27">
+      <c r="H39" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
+    <row r="40" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2484,12 +2464,12 @@
         <v>5</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="27">
+      <c r="H40" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
+    <row r="41" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2509,12 +2489,12 @@
         <v>5</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="27">
+      <c r="H41" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+    <row r="42" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2534,12 +2514,12 @@
         <v>5</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="27">
+      <c r="H42" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
+    <row r="43" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2559,12 +2539,12 @@
         <v>5</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="27">
+      <c r="H43" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
+    <row r="44" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2584,12 +2564,12 @@
         <v>5</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="27">
+      <c r="H44" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
+    <row r="45" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2609,12 +2589,12 @@
         <v>5</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="27">
+      <c r="H45" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2634,12 +2614,12 @@
         <v>5</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="27">
+      <c r="H46" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
+    <row r="47" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2659,12 +2639,12 @@
         <v>5</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="27">
+      <c r="H47" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
+    <row r="48" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2684,12 +2664,12 @@
         <v>5</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="27">
+      <c r="H48" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
+    <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2709,12 +2689,12 @@
         <v>5</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="27">
+      <c r="H49" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+    <row r="50" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2734,12 +2714,12 @@
         <v>5</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="27">
+      <c r="H50" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
+    <row r="51" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2759,12 +2739,12 @@
         <v>5</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="27">
+      <c r="H51" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
+    <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2784,12 +2764,12 @@
         <v>5</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="27">
+      <c r="H52" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
+    <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2809,12 +2789,12 @@
         <v>5</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="27">
+      <c r="H53" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+    <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2834,12 +2814,12 @@
         <v>5</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="27">
+      <c r="H54" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26">
+    <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2859,12 +2839,12 @@
         <v>5</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="27">
+      <c r="H55" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+    <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2884,12 +2864,12 @@
         <v>5</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="27">
+      <c r="H56" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26">
+    <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2909,12 +2889,12 @@
         <v>5</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="27">
+      <c r="H57" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
+    <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2934,12 +2914,12 @@
         <v>5</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="27">
+      <c r="H58" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26">
+    <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2959,12 +2939,12 @@
         <v>5</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="27">
+      <c r="H59" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26">
+    <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2984,12 +2964,12 @@
         <v>5</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="27">
+      <c r="H60" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
+    <row r="61" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3009,12 +2989,12 @@
         <v>5</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="27">
+      <c r="H61" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+    <row r="62" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3034,12 +3014,12 @@
         <v>5</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="27">
+      <c r="H62" s="26">
         <v>42635</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
+    <row r="63" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3059,12 +3039,12 @@
         <v>5</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="27">
+      <c r="H63" s="26">
         <v>42635</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
+      <c r="A64" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3084,12 +3064,12 @@
         <v>5</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="27">
+      <c r="H64" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="26">
+      <c r="A65" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3109,12 +3089,12 @@
         <v>5</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="27">
+      <c r="H65" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
+      <c r="A66" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3134,12 +3114,12 @@
         <v>5</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="27">
+      <c r="H66" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="26">
+      <c r="A67" s="25">
         <f t="shared" ref="A67:A130" si="1">IF(B67&lt;&gt;B68,1,0)</f>
         <v>1</v>
       </c>
@@ -3159,12 +3139,12 @@
         <v>5</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="27">
+      <c r="H67" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="26">
+      <c r="A68" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3184,12 +3164,12 @@
         <v>5</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="27">
+      <c r="H68" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="26">
+      <c r="A69" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3209,12 +3189,12 @@
         <v>5</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="27">
+      <c r="H69" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+      <c r="A70" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3234,12 +3214,12 @@
         <v>5</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="27">
+      <c r="H70" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="26">
+      <c r="A71" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3259,12 +3239,12 @@
         <v>5</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="27">
+      <c r="H71" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="26">
+      <c r="A72" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3284,12 +3264,12 @@
         <v>5</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="27">
+      <c r="H72" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="26">
+      <c r="A73" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3309,12 +3289,12 @@
         <v>5</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="27">
+      <c r="H73" s="26">
         <v>42620</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
+      <c r="A74" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3334,16 +3314,16 @@
         <v>5</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="27">
+      <c r="H74" s="26">
         <v>42627</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="26">
+      <c r="A75" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3359,16 +3339,16 @@
         <v>5</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="27">
+      <c r="H75" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26">
+      <c r="A76" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3384,16 +3364,16 @@
         <v>5</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="27">
+      <c r="H76" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
+      <c r="A77" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3409,16 +3389,16 @@
         <v>5</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="27">
+      <c r="H77" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+      <c r="A78" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3434,16 +3414,16 @@
         <v>5</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="27">
+      <c r="H78" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="26">
+      <c r="A79" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3459,16 +3439,16 @@
         <v>5</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="27">
+      <c r="H79" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="26">
+      <c r="A80" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3484,16 +3464,16 @@
         <v>5</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="27">
+      <c r="H80" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="26">
+      <c r="A81" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="31" t="s">
         <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3509,16 +3489,16 @@
         <v>5</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="27">
+      <c r="H81" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="26">
+      <c r="A82" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3534,16 +3514,16 @@
         <v>5</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="27">
+      <c r="H82" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="26">
+      <c r="A83" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3559,16 +3539,16 @@
         <v>5</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="27">
+      <c r="H83" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="26">
+      <c r="A84" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3584,16 +3564,16 @@
         <v>5</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="27">
+      <c r="H84" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="26">
+      <c r="A85" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3609,16 +3589,16 @@
         <v>5</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="27">
+      <c r="H85" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
+      <c r="A86" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3634,16 +3614,16 @@
         <v>5</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="27">
+      <c r="H86" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="26">
+      <c r="A87" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3659,16 +3639,16 @@
         <v>5</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="27">
+      <c r="H87" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="26">
+      <c r="A88" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3684,16 +3664,16 @@
         <v>5</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="27">
+      <c r="H88" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="26">
+      <c r="A89" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3709,16 +3689,16 @@
         <v>5</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="27">
+      <c r="H89" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="26">
+      <c r="A90" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3734,16 +3714,16 @@
         <v>5</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="27">
+      <c r="H90" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="26">
+      <c r="A91" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3759,16 +3739,16 @@
         <v>5</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="27">
+      <c r="H91" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="26">
+      <c r="A92" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3784,16 +3764,16 @@
         <v>5</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="27">
+      <c r="H92" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="26">
+      <c r="A93" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3809,16 +3789,16 @@
         <v>5</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="27">
+      <c r="H93" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="26">
+      <c r="A94" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3834,16 +3814,16 @@
         <v>5</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="27">
+      <c r="H94" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="26">
+      <c r="A95" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="31" t="s">
         <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3859,16 +3839,16 @@
         <v>5</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="H95" s="27">
+      <c r="H95" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="26">
+      <c r="A96" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="31" t="s">
         <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3884,16 +3864,16 @@
         <v>5</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="27">
+      <c r="H96" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="26">
+      <c r="A97" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3909,16 +3889,16 @@
         <v>5</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="27">
+      <c r="H97" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="26">
+      <c r="A98" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="31" t="s">
         <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3934,16 +3914,16 @@
         <v>5</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="27">
+      <c r="H98" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="26">
+      <c r="A99" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="31" t="s">
         <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3959,16 +3939,16 @@
         <v>5</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="27">
+      <c r="H99" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="26">
+      <c r="A100" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3984,16 +3964,16 @@
         <v>5</v>
       </c>
       <c r="G100" s="2"/>
-      <c r="H100" s="27">
+      <c r="H100" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="26">
+      <c r="A101" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4009,16 +3989,16 @@
         <v>5</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="27">
+      <c r="H101" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="26">
+      <c r="A102" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="31" t="s">
         <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -4034,16 +4014,16 @@
         <v>5</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="27">
+      <c r="H102" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="26">
+      <c r="A103" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -4059,16 +4039,16 @@
         <v>5</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="27">
+      <c r="H103" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="26">
+      <c r="A104" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -4084,16 +4064,16 @@
         <v>5</v>
       </c>
       <c r="G104" s="2"/>
-      <c r="H104" s="27">
+      <c r="H104" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="26">
+      <c r="A105" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -4109,16 +4089,16 @@
         <v>5</v>
       </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="27">
+      <c r="H105" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="26">
+      <c r="A106" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4134,16 +4114,16 @@
         <v>5</v>
       </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="27">
+      <c r="H106" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="26">
+      <c r="A107" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -4159,16 +4139,16 @@
         <v>5</v>
       </c>
       <c r="G107" s="2"/>
-      <c r="H107" s="27">
+      <c r="H107" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="26">
+      <c r="A108" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4184,16 +4164,16 @@
         <v>5</v>
       </c>
       <c r="G108" s="2"/>
-      <c r="H108" s="27">
+      <c r="H108" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="26">
+      <c r="A109" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="31" t="s">
         <v>140</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -4209,16 +4189,16 @@
         <v>5</v>
       </c>
       <c r="G109" s="2"/>
-      <c r="H109" s="27">
+      <c r="H109" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="26">
+      <c r="A110" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4234,16 +4214,16 @@
         <v>5</v>
       </c>
       <c r="G110" s="2"/>
-      <c r="H110" s="27">
+      <c r="H110" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="26">
+      <c r="A111" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4259,16 +4239,16 @@
         <v>5</v>
       </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="27">
+      <c r="H111" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="26">
+      <c r="A112" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -4284,16 +4264,16 @@
         <v>5</v>
       </c>
       <c r="G112" s="2"/>
-      <c r="H112" s="27">
+      <c r="H112" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="26">
+      <c r="A113" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -4309,16 +4289,16 @@
         <v>5</v>
       </c>
       <c r="G113" s="2"/>
-      <c r="H113" s="27">
+      <c r="H113" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="26">
+      <c r="A114" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -4334,16 +4314,16 @@
         <v>5</v>
       </c>
       <c r="G114" s="2"/>
-      <c r="H114" s="27">
+      <c r="H114" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="26">
+      <c r="A115" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -4359,16 +4339,16 @@
         <v>5</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="27">
+      <c r="H115" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="26">
+      <c r="A116" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -4384,16 +4364,16 @@
         <v>5</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="27">
+      <c r="H116" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="26">
+      <c r="A117" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -4409,16 +4389,16 @@
         <v>5</v>
       </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="27">
+      <c r="H117" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="26">
+      <c r="A118" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B118" s="41" t="s">
+      <c r="B118" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4434,12 +4414,12 @@
         <v>5</v>
       </c>
       <c r="G118" s="2"/>
-      <c r="H118" s="27">
+      <c r="H118" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="26">
+      <c r="A119" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4459,12 +4439,12 @@
         <v>5</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="27">
+      <c r="H119" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="26">
+      <c r="A120" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4484,12 +4464,12 @@
         <v>5</v>
       </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="27">
+      <c r="H120" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="26">
+      <c r="A121" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4509,12 +4489,12 @@
         <v>5</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="27">
+      <c r="H121" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="26">
+      <c r="A122" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4534,12 +4514,12 @@
         <v>5</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="27">
+      <c r="H122" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="26">
+      <c r="A123" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4559,12 +4539,12 @@
         <v>5</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="27">
+      <c r="H123" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="26">
+      <c r="A124" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4584,12 +4564,12 @@
         <v>5</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="27">
+      <c r="H124" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="26">
+      <c r="A125" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4609,12 +4589,12 @@
         <v>5</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="27">
+      <c r="H125" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="26">
+      <c r="A126" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4634,12 +4614,12 @@
         <v>5</v>
       </c>
       <c r="G126" s="2"/>
-      <c r="H126" s="27">
+      <c r="H126" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="26">
+      <c r="A127" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4659,12 +4639,12 @@
         <v>5</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="27">
+      <c r="H127" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="26">
+      <c r="A128" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4684,12 +4664,12 @@
         <v>5</v>
       </c>
       <c r="G128" s="2"/>
-      <c r="H128" s="27">
+      <c r="H128" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="26">
+      <c r="A129" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4709,12 +4689,12 @@
         <v>5</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="27">
+      <c r="H129" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="26">
+      <c r="A130" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4734,12 +4714,12 @@
         <v>5</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="27">
+      <c r="H130" s="26">
         <v>42639</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="26">
+      <c r="A131" s="25">
         <f t="shared" ref="A131:A194" si="2">IF(B131&lt;&gt;B132,1,0)</f>
         <v>0</v>
       </c>
@@ -4759,12 +4739,12 @@
         <v>5</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="27">
+      <c r="H131" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="26">
+      <c r="A132" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4784,12 +4764,12 @@
         <v>5</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="27">
+      <c r="H132" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="26">
+      <c r="A133" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4809,12 +4789,12 @@
         <v>5</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="27">
+      <c r="H133" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="26">
+      <c r="A134" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4834,12 +4814,12 @@
         <v>5</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="27">
+      <c r="H134" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="26">
+      <c r="A135" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4859,12 +4839,12 @@
         <v>5</v>
       </c>
       <c r="G135" s="2"/>
-      <c r="H135" s="27">
+      <c r="H135" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="26">
+      <c r="A136" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4884,12 +4864,12 @@
         <v>5</v>
       </c>
       <c r="G136" s="2"/>
-      <c r="H136" s="27">
+      <c r="H136" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="26">
+      <c r="A137" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4909,12 +4889,12 @@
         <v>5</v>
       </c>
       <c r="G137" s="2"/>
-      <c r="H137" s="27">
+      <c r="H137" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="26">
+      <c r="A138" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4934,12 +4914,12 @@
         <v>5</v>
       </c>
       <c r="G138" s="2"/>
-      <c r="H138" s="27">
+      <c r="H138" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="26">
+      <c r="A139" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4959,12 +4939,12 @@
         <v>5</v>
       </c>
       <c r="G139" s="2"/>
-      <c r="H139" s="27">
+      <c r="H139" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="26">
+      <c r="A140" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4984,12 +4964,12 @@
         <v>5</v>
       </c>
       <c r="G140" s="2"/>
-      <c r="H140" s="27">
+      <c r="H140" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="26">
+      <c r="A141" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5009,12 +4989,12 @@
         <v>5</v>
       </c>
       <c r="G141" s="2"/>
-      <c r="H141" s="27">
+      <c r="H141" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="26">
+      <c r="A142" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5034,12 +5014,12 @@
         <v>5</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="27">
+      <c r="H142" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="26">
+      <c r="A143" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5059,12 +5039,12 @@
         <v>5</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="27">
+      <c r="H143" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="26">
+      <c r="A144" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5084,12 +5064,12 @@
         <v>5</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="27">
+      <c r="H144" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="26">
+      <c r="A145" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5109,12 +5089,12 @@
         <v>5</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="27">
+      <c r="H145" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="26">
+      <c r="A146" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5134,12 +5114,12 @@
         <v>5</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="27">
+      <c r="H146" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="26">
+      <c r="A147" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5159,12 +5139,12 @@
         <v>5</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="27">
+      <c r="H147" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="26">
+      <c r="A148" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5184,12 +5164,12 @@
         <v>5</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="27">
+      <c r="H148" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="26">
+      <c r="A149" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5209,12 +5189,12 @@
         <v>5</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="27">
+      <c r="H149" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="26">
+      <c r="A150" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5234,12 +5214,12 @@
         <v>5</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="27">
+      <c r="H150" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="26">
+      <c r="A151" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5259,12 +5239,12 @@
         <v>5</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="27">
+      <c r="H151" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="26">
+      <c r="A152" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5284,12 +5264,12 @@
         <v>5</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="27">
+      <c r="H152" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="26">
+      <c r="A153" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5309,12 +5289,12 @@
         <v>5</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="27">
+      <c r="H153" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="26">
+      <c r="A154" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5334,12 +5314,12 @@
         <v>5</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="27">
+      <c r="H154" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="26">
+      <c r="A155" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5359,12 +5339,12 @@
         <v>5</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="27">
+      <c r="H155" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="26">
+      <c r="A156" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5384,12 +5364,12 @@
         <v>5</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="27">
+      <c r="H156" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="26">
+      <c r="A157" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5409,12 +5389,12 @@
         <v>5</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="27">
+      <c r="H157" s="26">
         <v>42641</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="26">
+      <c r="A158" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5434,10 +5414,12 @@
         <v>5</v>
       </c>
       <c r="G158" s="2"/>
-      <c r="H158" s="27"/>
+      <c r="H158" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="26">
+      <c r="A159" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5457,10 +5439,12 @@
         <v>5</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="27"/>
+      <c r="H159" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="26">
+      <c r="A160" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5480,10 +5464,12 @@
         <v>5</v>
       </c>
       <c r="G160" s="2"/>
-      <c r="H160" s="27"/>
+      <c r="H160" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="26">
+      <c r="A161" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5503,10 +5489,12 @@
         <v>5</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="27"/>
+      <c r="H161" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="26">
+      <c r="A162" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5526,10 +5514,12 @@
         <v>5</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="27"/>
+      <c r="H162" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="26">
+      <c r="A163" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5549,10 +5539,12 @@
         <v>5</v>
       </c>
       <c r="G163" s="2"/>
-      <c r="H163" s="28"/>
+      <c r="H163" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="26">
+      <c r="A164" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5572,10 +5564,12 @@
         <v>5</v>
       </c>
       <c r="G164" s="2"/>
-      <c r="H164" s="28"/>
+      <c r="H164" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="26">
+      <c r="A165" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5595,10 +5589,12 @@
         <v>5</v>
       </c>
       <c r="G165" s="2"/>
-      <c r="H165" s="28"/>
+      <c r="H165" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="26">
+      <c r="A166" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5618,10 +5614,12 @@
         <v>5</v>
       </c>
       <c r="G166" s="2"/>
-      <c r="H166" s="28"/>
+      <c r="H166" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="26">
+      <c r="A167" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5641,10 +5639,12 @@
         <v>5</v>
       </c>
       <c r="G167" s="2"/>
-      <c r="H167" s="28"/>
+      <c r="H167" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="26">
+      <c r="A168" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5664,10 +5664,12 @@
         <v>5</v>
       </c>
       <c r="G168" s="2"/>
-      <c r="H168" s="28"/>
+      <c r="H168" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="26">
+      <c r="A169" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5687,10 +5689,12 @@
         <v>5</v>
       </c>
       <c r="G169" s="2"/>
-      <c r="H169" s="28"/>
+      <c r="H169" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="26">
+      <c r="A170" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5710,10 +5714,12 @@
         <v>5</v>
       </c>
       <c r="G170" s="2"/>
-      <c r="H170" s="28"/>
+      <c r="H170" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="26">
+      <c r="A171" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5733,10 +5739,12 @@
         <v>5</v>
       </c>
       <c r="G171" s="2"/>
-      <c r="H171" s="28"/>
+      <c r="H171" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="26">
+      <c r="A172" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5756,10 +5764,12 @@
         <v>5</v>
       </c>
       <c r="G172" s="2"/>
-      <c r="H172" s="28"/>
+      <c r="H172" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="26">
+      <c r="A173" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5779,10 +5789,12 @@
         <v>5</v>
       </c>
       <c r="G173" s="2"/>
-      <c r="H173" s="28"/>
+      <c r="H173" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="26">
+      <c r="A174" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5802,10 +5814,12 @@
         <v>5</v>
       </c>
       <c r="G174" s="2"/>
-      <c r="H174" s="28"/>
+      <c r="H174" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="26">
+      <c r="A175" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5825,10 +5839,12 @@
         <v>5</v>
       </c>
       <c r="G175" s="2"/>
-      <c r="H175" s="28"/>
+      <c r="H175" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="26">
+      <c r="A176" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5848,10 +5864,12 @@
         <v>5</v>
       </c>
       <c r="G176" s="2"/>
-      <c r="H176" s="28"/>
+      <c r="H176" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="26">
+      <c r="A177" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5871,10 +5889,12 @@
         <v>5</v>
       </c>
       <c r="G177" s="2"/>
-      <c r="H177" s="28"/>
+      <c r="H177" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="26">
+      <c r="A178" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5894,10 +5914,12 @@
         <v>5</v>
       </c>
       <c r="G178" s="2"/>
-      <c r="H178" s="28"/>
+      <c r="H178" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="26">
+      <c r="A179" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5917,10 +5939,12 @@
         <v>5</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="28"/>
+      <c r="H179" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="26">
+      <c r="A180" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5940,10 +5964,12 @@
         <v>5</v>
       </c>
       <c r="G180" s="2"/>
-      <c r="H180" s="28"/>
+      <c r="H180" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="26">
+      <c r="A181" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5963,10 +5989,12 @@
         <v>5</v>
       </c>
       <c r="G181" s="2"/>
-      <c r="H181" s="28"/>
+      <c r="H181" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="26">
+      <c r="A182" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5986,10 +6014,12 @@
         <v>5</v>
       </c>
       <c r="G182" s="2"/>
-      <c r="H182" s="28"/>
+      <c r="H182" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="26">
+      <c r="A183" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6009,10 +6039,12 @@
         <v>5</v>
       </c>
       <c r="G183" s="2"/>
-      <c r="H183" s="28"/>
+      <c r="H183" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="26">
+      <c r="A184" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6032,10 +6064,12 @@
         <v>5</v>
       </c>
       <c r="G184" s="2"/>
-      <c r="H184" s="28"/>
+      <c r="H184" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="26">
+      <c r="A185" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6055,10 +6089,12 @@
         <v>5</v>
       </c>
       <c r="G185" s="2"/>
-      <c r="H185" s="28"/>
+      <c r="H185" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="26">
+      <c r="A186" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6078,10 +6114,12 @@
         <v>5</v>
       </c>
       <c r="G186" s="2"/>
-      <c r="H186" s="28"/>
+      <c r="H186" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="26">
+      <c r="A187" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6101,10 +6139,12 @@
         <v>5</v>
       </c>
       <c r="G187" s="2"/>
-      <c r="H187" s="28"/>
+      <c r="H187" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="26">
+      <c r="A188" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6124,10 +6164,12 @@
         <v>5</v>
       </c>
       <c r="G188" s="2"/>
-      <c r="H188" s="28"/>
+      <c r="H188" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="26">
+      <c r="A189" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6147,10 +6189,12 @@
         <v>5</v>
       </c>
       <c r="G189" s="2"/>
-      <c r="H189" s="28"/>
+      <c r="H189" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="26">
+      <c r="A190" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6170,10 +6214,12 @@
         <v>5</v>
       </c>
       <c r="G190" s="2"/>
-      <c r="H190" s="28"/>
+      <c r="H190" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="26">
+      <c r="A191" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6193,10 +6239,12 @@
         <v>5</v>
       </c>
       <c r="G191" s="2"/>
-      <c r="H191" s="28"/>
+      <c r="H191" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="26">
+      <c r="A192" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6216,10 +6264,12 @@
         <v>5</v>
       </c>
       <c r="G192" s="2"/>
-      <c r="H192" s="28"/>
+      <c r="H192" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="26">
+      <c r="A193" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6239,10 +6289,12 @@
         <v>5</v>
       </c>
       <c r="G193" s="2"/>
-      <c r="H193" s="28"/>
+      <c r="H193" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="26">
+      <c r="A194" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6262,10 +6314,12 @@
         <v>5</v>
       </c>
       <c r="G194" s="2"/>
-      <c r="H194" s="28"/>
+      <c r="H194" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="26">
+      <c r="A195" s="25">
         <f t="shared" ref="A195:A258" si="3">IF(B195&lt;&gt;B196,1,0)</f>
         <v>1</v>
       </c>
@@ -6285,10 +6339,12 @@
         <v>5</v>
       </c>
       <c r="G195" s="2"/>
-      <c r="H195" s="28"/>
+      <c r="H195" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="26">
+      <c r="A196" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6308,10 +6364,12 @@
         <v>5</v>
       </c>
       <c r="G196" s="2"/>
-      <c r="H196" s="28"/>
+      <c r="H196" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="26">
+      <c r="A197" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6331,10 +6389,12 @@
         <v>5</v>
       </c>
       <c r="G197" s="2"/>
-      <c r="H197" s="28"/>
+      <c r="H197" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="26">
+      <c r="A198" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6354,10 +6414,12 @@
         <v>5</v>
       </c>
       <c r="G198" s="2"/>
-      <c r="H198" s="28"/>
+      <c r="H198" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="26">
+      <c r="A199" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6377,10 +6439,12 @@
         <v>5</v>
       </c>
       <c r="G199" s="2"/>
-      <c r="H199" s="28"/>
+      <c r="H199" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="26">
+      <c r="A200" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6400,10 +6464,12 @@
         <v>5</v>
       </c>
       <c r="G200" s="2"/>
-      <c r="H200" s="28"/>
+      <c r="H200" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="26">
+      <c r="A201" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6423,10 +6489,12 @@
         <v>5</v>
       </c>
       <c r="G201" s="2"/>
-      <c r="H201" s="28"/>
+      <c r="H201" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="26">
+      <c r="A202" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6446,10 +6514,12 @@
         <v>5</v>
       </c>
       <c r="G202" s="2"/>
-      <c r="H202" s="28"/>
+      <c r="H202" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="26">
+      <c r="A203" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6469,10 +6539,12 @@
         <v>5</v>
       </c>
       <c r="G203" s="2"/>
-      <c r="H203" s="28"/>
+      <c r="H203" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="26">
+      <c r="A204" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6492,10 +6564,12 @@
         <v>5</v>
       </c>
       <c r="G204" s="2"/>
-      <c r="H204" s="28"/>
+      <c r="H204" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="26">
+      <c r="A205" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6515,10 +6589,12 @@
         <v>5</v>
       </c>
       <c r="G205" s="2"/>
-      <c r="H205" s="28"/>
+      <c r="H205" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="26">
+      <c r="A206" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6538,10 +6614,12 @@
         <v>5</v>
       </c>
       <c r="G206" s="2"/>
-      <c r="H206" s="28"/>
+      <c r="H206" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="26">
+      <c r="A207" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6561,10 +6639,12 @@
         <v>5</v>
       </c>
       <c r="G207" s="2"/>
-      <c r="H207" s="28"/>
+      <c r="H207" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="26">
+      <c r="A208" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6584,10 +6664,12 @@
         <v>5</v>
       </c>
       <c r="G208" s="2"/>
-      <c r="H208" s="28"/>
+      <c r="H208" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="26">
+      <c r="A209" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6607,10 +6689,12 @@
         <v>5</v>
       </c>
       <c r="G209" s="2"/>
-      <c r="H209" s="28"/>
+      <c r="H209" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="26">
+      <c r="A210" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6630,10 +6714,12 @@
         <v>5</v>
       </c>
       <c r="G210" s="2"/>
-      <c r="H210" s="28"/>
+      <c r="H210" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="26">
+      <c r="A211" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6653,10 +6739,12 @@
         <v>5</v>
       </c>
       <c r="G211" s="2"/>
-      <c r="H211" s="28"/>
+      <c r="H211" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="26">
+      <c r="A212" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6676,10 +6764,12 @@
         <v>5</v>
       </c>
       <c r="G212" s="2"/>
-      <c r="H212" s="28"/>
+      <c r="H212" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="26">
+      <c r="A213" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6699,10 +6789,12 @@
         <v>5</v>
       </c>
       <c r="G213" s="2"/>
-      <c r="H213" s="28"/>
+      <c r="H213" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="26">
+      <c r="A214" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6722,10 +6814,12 @@
         <v>5</v>
       </c>
       <c r="G214" s="2"/>
-      <c r="H214" s="28"/>
+      <c r="H214" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="26">
+      <c r="A215" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6745,10 +6839,12 @@
         <v>5</v>
       </c>
       <c r="G215" s="2"/>
-      <c r="H215" s="28"/>
+      <c r="H215" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="26">
+      <c r="A216" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6768,10 +6864,12 @@
         <v>5</v>
       </c>
       <c r="G216" s="2"/>
-      <c r="H216" s="28"/>
+      <c r="H216" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="26">
+      <c r="A217" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6791,10 +6889,12 @@
         <v>5</v>
       </c>
       <c r="G217" s="2"/>
-      <c r="H217" s="28"/>
+      <c r="H217" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="26">
+      <c r="A218" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6814,10 +6914,12 @@
         <v>5</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" s="28"/>
+      <c r="H218" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="26">
+      <c r="A219" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6837,10 +6939,12 @@
         <v>5</v>
       </c>
       <c r="G219" s="2"/>
-      <c r="H219" s="28"/>
+      <c r="H219" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="26">
+      <c r="A220" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6860,10 +6964,12 @@
         <v>5</v>
       </c>
       <c r="G220" s="2"/>
-      <c r="H220" s="28"/>
+      <c r="H220" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="26">
+      <c r="A221" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6883,10 +6989,12 @@
         <v>5</v>
       </c>
       <c r="G221" s="2"/>
-      <c r="H221" s="28"/>
+      <c r="H221" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="26">
+      <c r="A222" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6906,10 +7014,12 @@
         <v>5</v>
       </c>
       <c r="G222" s="2"/>
-      <c r="H222" s="28"/>
+      <c r="H222" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="26">
+      <c r="A223" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6929,10 +7039,12 @@
         <v>5</v>
       </c>
       <c r="G223" s="2"/>
-      <c r="H223" s="28"/>
+      <c r="H223" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="26">
+      <c r="A224" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6952,10 +7064,12 @@
         <v>5</v>
       </c>
       <c r="G224" s="2"/>
-      <c r="H224" s="28"/>
+      <c r="H224" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="26">
+      <c r="A225" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6975,10 +7089,12 @@
         <v>5</v>
       </c>
       <c r="G225" s="2"/>
-      <c r="H225" s="28"/>
+      <c r="H225" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="26">
+      <c r="A226" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6998,10 +7114,12 @@
         <v>5</v>
       </c>
       <c r="G226" s="2"/>
-      <c r="H226" s="28"/>
+      <c r="H226" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="26">
+      <c r="A227" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7021,10 +7139,12 @@
         <v>5</v>
       </c>
       <c r="G227" s="2"/>
-      <c r="H227" s="28"/>
+      <c r="H227" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="26">
+      <c r="A228" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7044,10 +7164,12 @@
         <v>5</v>
       </c>
       <c r="G228" s="2"/>
-      <c r="H228" s="28"/>
+      <c r="H228" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="26">
+      <c r="A229" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7067,10 +7189,12 @@
         <v>5</v>
       </c>
       <c r="G229" s="2"/>
-      <c r="H229" s="28"/>
+      <c r="H229" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="26">
+      <c r="A230" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7090,10 +7214,12 @@
         <v>5</v>
       </c>
       <c r="G230" s="2"/>
-      <c r="H230" s="28"/>
+      <c r="H230" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="26">
+      <c r="A231" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7113,10 +7239,12 @@
         <v>5</v>
       </c>
       <c r="G231" s="2"/>
-      <c r="H231" s="28"/>
+      <c r="H231" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="26">
+      <c r="A232" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7136,10 +7264,12 @@
         <v>5</v>
       </c>
       <c r="G232" s="2"/>
-      <c r="H232" s="28"/>
+      <c r="H232" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="26">
+      <c r="A233" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7159,10 +7289,12 @@
         <v>5</v>
       </c>
       <c r="G233" s="2"/>
-      <c r="H233" s="28"/>
+      <c r="H233" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="26">
+      <c r="A234" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7182,10 +7314,12 @@
         <v>5</v>
       </c>
       <c r="G234" s="2"/>
-      <c r="H234" s="28"/>
+      <c r="H234" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="26">
+      <c r="A235" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7205,10 +7339,12 @@
         <v>5</v>
       </c>
       <c r="G235" s="2"/>
-      <c r="H235" s="28"/>
+      <c r="H235" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="26">
+      <c r="A236" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7228,10 +7364,12 @@
         <v>5</v>
       </c>
       <c r="G236" s="2"/>
-      <c r="H236" s="28"/>
+      <c r="H236" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="26">
+      <c r="A237" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7251,10 +7389,12 @@
         <v>5</v>
       </c>
       <c r="G237" s="2"/>
-      <c r="H237" s="28"/>
+      <c r="H237" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="26">
+      <c r="A238" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7274,10 +7414,12 @@
         <v>5</v>
       </c>
       <c r="G238" s="2"/>
-      <c r="H238" s="28"/>
+      <c r="H238" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="26">
+      <c r="A239" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7297,10 +7439,12 @@
         <v>5</v>
       </c>
       <c r="G239" s="2"/>
-      <c r="H239" s="28"/>
+      <c r="H239" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="26">
+      <c r="A240" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7320,10 +7464,12 @@
         <v>5</v>
       </c>
       <c r="G240" s="2"/>
-      <c r="H240" s="28"/>
+      <c r="H240" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="26">
+      <c r="A241" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7343,10 +7489,12 @@
         <v>5</v>
       </c>
       <c r="G241" s="2"/>
-      <c r="H241" s="28"/>
+      <c r="H241" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="26">
+      <c r="A242" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7366,10 +7514,12 @@
         <v>5</v>
       </c>
       <c r="G242" s="2"/>
-      <c r="H242" s="28"/>
+      <c r="H242" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="26">
+      <c r="A243" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7389,10 +7539,12 @@
         <v>5</v>
       </c>
       <c r="G243" s="2"/>
-      <c r="H243" s="28"/>
+      <c r="H243" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="26">
+      <c r="A244" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7412,10 +7564,12 @@
         <v>5</v>
       </c>
       <c r="G244" s="2"/>
-      <c r="H244" s="28"/>
+      <c r="H244" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="26">
+      <c r="A245" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7435,10 +7589,12 @@
         <v>5</v>
       </c>
       <c r="G245" s="2"/>
-      <c r="H245" s="28"/>
+      <c r="H245" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="26">
+      <c r="A246" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7458,10 +7614,12 @@
         <v>5</v>
       </c>
       <c r="G246" s="2"/>
-      <c r="H246" s="28"/>
+      <c r="H246" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="26">
+      <c r="A247" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7481,10 +7639,12 @@
         <v>5</v>
       </c>
       <c r="G247" s="2"/>
-      <c r="H247" s="28"/>
+      <c r="H247" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="26">
+      <c r="A248" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7504,10 +7664,12 @@
         <v>5</v>
       </c>
       <c r="G248" s="2"/>
-      <c r="H248" s="28"/>
+      <c r="H248" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="26">
+      <c r="A249" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7527,10 +7689,12 @@
         <v>5</v>
       </c>
       <c r="G249" s="2"/>
-      <c r="H249" s="28"/>
+      <c r="H249" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="26">
+      <c r="A250" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7550,10 +7714,12 @@
         <v>5</v>
       </c>
       <c r="G250" s="2"/>
-      <c r="H250" s="28"/>
+      <c r="H250" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="26">
+      <c r="A251" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7573,10 +7739,12 @@
         <v>5</v>
       </c>
       <c r="G251" s="2"/>
-      <c r="H251" s="28"/>
+      <c r="H251" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="26">
+      <c r="A252" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7596,10 +7764,12 @@
         <v>5</v>
       </c>
       <c r="G252" s="2"/>
-      <c r="H252" s="28"/>
+      <c r="H252" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="26">
+      <c r="A253" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7619,10 +7789,12 @@
         <v>5</v>
       </c>
       <c r="G253" s="2"/>
-      <c r="H253" s="28"/>
+      <c r="H253" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="26">
+      <c r="A254" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7642,10 +7814,12 @@
         <v>5</v>
       </c>
       <c r="G254" s="2"/>
-      <c r="H254" s="28"/>
+      <c r="H254" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="26">
+      <c r="A255" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7665,10 +7839,12 @@
         <v>5</v>
       </c>
       <c r="G255" s="2"/>
-      <c r="H255" s="28"/>
+      <c r="H255" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="26">
+      <c r="A256" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7688,10 +7864,12 @@
         <v>5</v>
       </c>
       <c r="G256" s="2"/>
-      <c r="H256" s="28"/>
+      <c r="H256" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="26">
+      <c r="A257" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7711,10 +7889,12 @@
         <v>5</v>
       </c>
       <c r="G257" s="2"/>
-      <c r="H257" s="28"/>
+      <c r="H257" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="26">
+      <c r="A258" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7734,10 +7914,12 @@
         <v>5</v>
       </c>
       <c r="G258" s="2"/>
-      <c r="H258" s="28"/>
+      <c r="H258" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="26">
+      <c r="A259" s="25">
         <f t="shared" ref="A259:A306" si="4">IF(B259&lt;&gt;B260,1,0)</f>
         <v>0</v>
       </c>
@@ -7757,10 +7939,12 @@
         <v>5</v>
       </c>
       <c r="G259" s="2"/>
-      <c r="H259" s="28"/>
+      <c r="H259" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="26">
+      <c r="A260" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7780,10 +7964,12 @@
         <v>5</v>
       </c>
       <c r="G260" s="2"/>
-      <c r="H260" s="28"/>
+      <c r="H260" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="26">
+      <c r="A261" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7803,10 +7989,12 @@
         <v>5</v>
       </c>
       <c r="G261" s="2"/>
-      <c r="H261" s="28"/>
+      <c r="H261" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="26">
+      <c r="A262" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7826,10 +8014,12 @@
         <v>5</v>
       </c>
       <c r="G262" s="2"/>
-      <c r="H262" s="28"/>
+      <c r="H262" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="26">
+      <c r="A263" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7849,10 +8039,12 @@
         <v>5</v>
       </c>
       <c r="G263" s="2"/>
-      <c r="H263" s="28"/>
+      <c r="H263" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="26">
+      <c r="A264" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7872,10 +8064,12 @@
         <v>5</v>
       </c>
       <c r="G264" s="2"/>
-      <c r="H264" s="28"/>
+      <c r="H264" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="26">
+      <c r="A265" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7895,10 +8089,12 @@
         <v>5</v>
       </c>
       <c r="G265" s="2"/>
-      <c r="H265" s="28"/>
+      <c r="H265" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="26">
+      <c r="A266" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7918,10 +8114,12 @@
         <v>5</v>
       </c>
       <c r="G266" s="2"/>
-      <c r="H266" s="28"/>
+      <c r="H266" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="26">
+      <c r="A267" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7941,10 +8139,12 @@
         <v>5</v>
       </c>
       <c r="G267" s="2"/>
-      <c r="H267" s="28"/>
+      <c r="H267" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="26">
+      <c r="A268" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7964,10 +8164,12 @@
         <v>5</v>
       </c>
       <c r="G268" s="2"/>
-      <c r="H268" s="28"/>
+      <c r="H268" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="26">
+      <c r="A269" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7987,10 +8189,12 @@
         <v>5</v>
       </c>
       <c r="G269" s="2"/>
-      <c r="H269" s="28"/>
+      <c r="H269" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="26">
+      <c r="A270" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8010,10 +8214,12 @@
         <v>5</v>
       </c>
       <c r="G270" s="2"/>
-      <c r="H270" s="28"/>
+      <c r="H270" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="26">
+      <c r="A271" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8033,10 +8239,12 @@
         <v>5</v>
       </c>
       <c r="G271" s="2"/>
-      <c r="H271" s="28"/>
+      <c r="H271" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="26">
+      <c r="A272" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8056,10 +8264,12 @@
         <v>5</v>
       </c>
       <c r="G272" s="2"/>
-      <c r="H272" s="28"/>
+      <c r="H272" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="26">
+      <c r="A273" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8079,10 +8289,12 @@
         <v>5</v>
       </c>
       <c r="G273" s="2"/>
-      <c r="H273" s="28"/>
+      <c r="H273" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="26">
+      <c r="A274" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8102,10 +8314,12 @@
         <v>5</v>
       </c>
       <c r="G274" s="2"/>
-      <c r="H274" s="28"/>
+      <c r="H274" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="26">
+      <c r="A275" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8125,10 +8339,12 @@
         <v>5</v>
       </c>
       <c r="G275" s="2"/>
-      <c r="H275" s="28"/>
+      <c r="H275" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="26">
+      <c r="A276" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8148,10 +8364,12 @@
         <v>5</v>
       </c>
       <c r="G276" s="2"/>
-      <c r="H276" s="28"/>
+      <c r="H276" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="26">
+      <c r="A277" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8171,10 +8389,12 @@
         <v>5</v>
       </c>
       <c r="G277" s="2"/>
-      <c r="H277" s="28"/>
+      <c r="H277" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="26">
+      <c r="A278" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8194,10 +8414,12 @@
         <v>5</v>
       </c>
       <c r="G278" s="2"/>
-      <c r="H278" s="28"/>
+      <c r="H278" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="26">
+      <c r="A279" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8217,10 +8439,12 @@
         <v>5</v>
       </c>
       <c r="G279" s="2"/>
-      <c r="H279" s="28"/>
+      <c r="H279" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="26">
+      <c r="A280" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8240,10 +8464,12 @@
         <v>5</v>
       </c>
       <c r="G280" s="2"/>
-      <c r="H280" s="28"/>
+      <c r="H280" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="26">
+      <c r="A281" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8263,10 +8489,12 @@
         <v>5</v>
       </c>
       <c r="G281" s="2"/>
-      <c r="H281" s="28"/>
+      <c r="H281" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="26">
+      <c r="A282" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8286,10 +8514,12 @@
         <v>5</v>
       </c>
       <c r="G282" s="2"/>
-      <c r="H282" s="28"/>
+      <c r="H282" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="26">
+      <c r="A283" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8309,10 +8539,12 @@
         <v>5</v>
       </c>
       <c r="G283" s="2"/>
-      <c r="H283" s="28"/>
+      <c r="H283" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="26">
+      <c r="A284" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8332,10 +8564,12 @@
         <v>5</v>
       </c>
       <c r="G284" s="2"/>
-      <c r="H284" s="28"/>
+      <c r="H284" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="26">
+      <c r="A285" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8355,10 +8589,12 @@
         <v>5</v>
       </c>
       <c r="G285" s="2"/>
-      <c r="H285" s="28"/>
+      <c r="H285" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="26">
+      <c r="A286" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8378,10 +8614,12 @@
         <v>5</v>
       </c>
       <c r="G286" s="2"/>
-      <c r="H286" s="28"/>
+      <c r="H286" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="26">
+      <c r="A287" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8401,10 +8639,12 @@
         <v>5</v>
       </c>
       <c r="G287" s="2"/>
-      <c r="H287" s="28"/>
+      <c r="H287" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="26">
+      <c r="A288" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8424,10 +8664,12 @@
         <v>5</v>
       </c>
       <c r="G288" s="2"/>
-      <c r="H288" s="28"/>
+      <c r="H288" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="26">
+      <c r="A289" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8447,10 +8689,12 @@
         <v>5</v>
       </c>
       <c r="G289" s="2"/>
-      <c r="H289" s="28"/>
+      <c r="H289" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="26">
+      <c r="A290" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8470,10 +8714,12 @@
         <v>5</v>
       </c>
       <c r="G290" s="2"/>
-      <c r="H290" s="28"/>
+      <c r="H290" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="26">
+      <c r="A291" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8493,10 +8739,12 @@
         <v>5</v>
       </c>
       <c r="G291" s="2"/>
-      <c r="H291" s="28"/>
+      <c r="H291" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="26">
+      <c r="A292" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8516,10 +8764,12 @@
         <v>5</v>
       </c>
       <c r="G292" s="2"/>
-      <c r="H292" s="28"/>
+      <c r="H292" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="26">
+      <c r="A293" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8539,10 +8789,12 @@
         <v>5</v>
       </c>
       <c r="G293" s="2"/>
-      <c r="H293" s="28"/>
+      <c r="H293" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="26">
+      <c r="A294" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8562,10 +8814,12 @@
         <v>5</v>
       </c>
       <c r="G294" s="2"/>
-      <c r="H294" s="28"/>
+      <c r="H294" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="26">
+      <c r="A295" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8585,10 +8839,12 @@
         <v>5</v>
       </c>
       <c r="G295" s="2"/>
-      <c r="H295" s="28"/>
+      <c r="H295" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="26">
+      <c r="A296" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8608,10 +8864,12 @@
         <v>5</v>
       </c>
       <c r="G296" s="2"/>
-      <c r="H296" s="28"/>
+      <c r="H296" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="26">
+      <c r="A297" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8631,10 +8889,12 @@
         <v>5</v>
       </c>
       <c r="G297" s="2"/>
-      <c r="H297" s="28"/>
+      <c r="H297" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="26">
+      <c r="A298" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8654,10 +8914,12 @@
         <v>5</v>
       </c>
       <c r="G298" s="2"/>
-      <c r="H298" s="28"/>
+      <c r="H298" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="26">
+      <c r="A299" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8677,10 +8939,12 @@
         <v>5</v>
       </c>
       <c r="G299" s="2"/>
-      <c r="H299" s="28"/>
+      <c r="H299" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="26">
+      <c r="A300" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8700,10 +8964,12 @@
         <v>5</v>
       </c>
       <c r="G300" s="2"/>
-      <c r="H300" s="28"/>
+      <c r="H300" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="26">
+      <c r="A301" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8723,10 +8989,12 @@
         <v>5</v>
       </c>
       <c r="G301" s="2"/>
-      <c r="H301" s="28"/>
+      <c r="H301" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="26">
+      <c r="A302" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8746,10 +9014,12 @@
         <v>5</v>
       </c>
       <c r="G302" s="2"/>
-      <c r="H302" s="28"/>
+      <c r="H302" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="26">
+      <c r="A303" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8769,10 +9039,12 @@
         <v>5</v>
       </c>
       <c r="G303" s="2"/>
-      <c r="H303" s="28"/>
+      <c r="H303" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="26">
+      <c r="A304" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -8792,10 +9064,12 @@
         <v>5</v>
       </c>
       <c r="G304" s="2"/>
-      <c r="H304" s="28"/>
+      <c r="H304" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="26">
+      <c r="A305" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8815,30 +9089,34 @@
         <v>5</v>
       </c>
       <c r="G305" s="2"/>
-      <c r="H305" s="28"/>
+      <c r="H305" s="26">
+        <v>42688</v>
+      </c>
     </row>
     <row r="306" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="29">
+      <c r="A306" s="27">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="C306" s="30" t="s">
+      <c r="C306" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D306" s="42" t="s">
+      <c r="D306" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E306" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F306" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G306" s="30"/>
-      <c r="H306" s="32"/>
+      <c r="E306" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G306" s="28"/>
+      <c r="H306" s="26">
+        <v>42688</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8850,8 +9128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8909,13 +9187,13 @@
       <c r="A3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>168</v>
       </c>
       <c r="Q3" t="s">
@@ -8924,501 +9202,501 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>4</v>
       </c>
-      <c r="F4" s="16">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>7</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>8</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>9</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>10</v>
       </c>
-      <c r="L4" s="17">
-        <v>11</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="L4" s="16">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8">
         <v>12</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>13</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>14</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>15</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <v>16</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>17</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <v>18</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <v>19</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <v>20</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="36" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="154">

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de fuentes y dependencias" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="267">
   <si>
     <t>Nombre Fuente</t>
   </si>
@@ -1145,10 +1145,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -9128,8 +9128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9164,6 +9164,12 @@
       <c r="C2" t="s">
         <v>172</v>
       </c>
+      <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" t="s">
+        <v>171</v>
+      </c>
       <c r="M2" t="s">
         <v>171</v>
       </c>
@@ -9171,9 +9177,6 @@
         <v>171</v>
       </c>
       <c r="O2" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" t="s">
         <v>171</v>
       </c>
       <c r="R2" t="s">
@@ -9190,6 +9193,9 @@
       <c r="B3" s="30" t="s">
         <v>167</v>
       </c>
+      <c r="C3" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="E3" s="30" t="s">
         <v>168</v>
       </c>
@@ -9220,7 +9226,7 @@
       <c r="G4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="8">
         <v>7</v>
       </c>
       <c r="I4" s="16">
@@ -9232,7 +9238,7 @@
       <c r="K4" s="15">
         <v>10</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="8">
         <v>11</v>
       </c>
       <c r="M4" s="8">
@@ -9402,7 +9408,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="38"/>
+      <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="35"/>
@@ -9492,7 +9498,7 @@
       <c r="A12" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="35"/>
@@ -9506,7 +9512,7 @@
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -9558,7 +9564,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="38"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="33"/>
@@ -9648,7 +9654,7 @@
       <c r="A18" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="33"/>
@@ -9657,7 +9663,7 @@
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -9700,40 +9706,102 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="A16:A17"/>
@@ -9758,102 +9826,40 @@
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de fuentes y dependencias" sheetId="1" r:id="rId1"/>
@@ -1145,10 +1145,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1452,10 +1452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1471,7 @@
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <f>IF(B2&lt;&gt;B3,1,0)</f>
         <v>1</v>
@@ -1518,7 +1519,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;B4,1,0)</f>
         <v>1</v>
@@ -1543,7 +1544,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1568,7 +1569,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1593,7 +1594,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1618,7 +1619,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1643,7 +1644,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1668,7 +1669,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1693,7 +1694,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1718,7 +1719,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1743,7 +1744,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1768,7 +1769,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1793,7 +1794,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1818,7 +1819,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1843,7 +1844,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1868,7 +1869,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1893,7 +1894,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1918,7 +1919,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1943,7 +1944,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1968,7 +1969,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1993,7 +1994,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2018,7 +2019,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2043,7 +2044,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2068,7 +2069,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2093,7 +2094,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2118,7 +2119,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2143,7 +2144,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2168,7 +2169,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2193,7 +2194,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2218,7 +2219,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2243,7 +2244,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2268,7 +2269,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2293,7 +2294,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2318,7 +2319,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2343,7 +2344,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2368,7 +2369,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2393,7 +2394,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2418,7 +2419,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2443,7 +2444,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2468,7 +2469,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2493,7 +2494,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2518,7 +2519,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2543,7 +2544,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2568,7 +2569,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2593,7 +2594,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2618,7 +2619,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2643,7 +2644,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2668,7 +2669,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2693,7 +2694,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2718,7 +2719,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2743,7 +2744,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2768,7 +2769,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2793,7 +2794,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2818,7 +2819,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2868,7 +2869,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2893,7 +2894,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2918,7 +2919,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2943,7 +2944,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2968,7 +2969,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3018,7 +3019,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3043,7 +3044,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3068,7 +3069,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3093,7 +3094,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3118,7 +3119,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <f t="shared" ref="A67:A130" si="1">IF(B67&lt;&gt;B68,1,0)</f>
         <v>1</v>
@@ -3143,7 +3144,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3168,7 +3169,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3193,7 +3194,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3218,7 +3219,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3243,7 +3244,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3268,7 +3269,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3293,7 +3294,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3318,7 +3319,7 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3343,7 +3344,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3368,7 +3369,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3393,7 +3394,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3418,7 +3419,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3443,7 +3444,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3468,7 +3469,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3493,7 +3494,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3518,7 +3519,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3543,7 +3544,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3568,7 +3569,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3593,7 +3594,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3618,7 +3619,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3643,7 +3644,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3668,7 +3669,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3693,7 +3694,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3718,7 +3719,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3743,7 +3744,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3768,7 +3769,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3793,7 +3794,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3818,7 +3819,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3843,7 +3844,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3868,7 +3869,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3893,7 +3894,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3918,7 +3919,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3943,7 +3944,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3968,7 +3969,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3993,7 +3994,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4018,7 +4019,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4043,7 +4044,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4068,7 +4069,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4093,7 +4094,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4118,7 +4119,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4143,7 +4144,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4168,7 +4169,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4193,7 +4194,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4218,7 +4219,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4243,7 +4244,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4268,7 +4269,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4293,7 +4294,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4318,7 +4319,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4343,7 +4344,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4368,7 +4369,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4393,7 +4394,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4418,7 +4419,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4443,7 +4444,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4493,7 +4494,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4518,7 +4519,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4543,7 +4544,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4568,7 +4569,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4618,7 +4619,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4643,7 +4644,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4693,7 +4694,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4718,7 +4719,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25">
         <f t="shared" ref="A131:A194" si="2">IF(B131&lt;&gt;B132,1,0)</f>
         <v>0</v>
@@ -4743,7 +4744,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4768,7 +4769,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4793,7 +4794,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4818,7 +4819,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4843,7 +4844,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4868,7 +4869,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4893,7 +4894,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4918,7 +4919,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4943,7 +4944,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4968,7 +4969,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4993,7 +4994,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5018,7 +5019,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5043,7 +5044,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5068,7 +5069,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5093,7 +5094,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5118,7 +5119,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5143,7 +5144,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5168,7 +5169,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5193,7 +5194,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5218,7 +5219,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5243,7 +5244,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5268,7 +5269,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5293,7 +5294,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5318,7 +5319,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5343,7 +5344,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5368,7 +5369,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5393,7 +5394,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5418,7 +5419,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5443,7 +5444,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5468,7 +5469,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5493,7 +5494,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5518,7 +5519,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5543,7 +5544,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5568,7 +5569,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5593,7 +5594,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5618,7 +5619,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5643,7 +5644,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5668,7 +5669,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5693,7 +5694,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5718,7 +5719,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5743,7 +5744,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5768,7 +5769,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5793,7 +5794,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5818,7 +5819,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5843,7 +5844,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5868,7 +5869,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5893,7 +5894,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5918,7 +5919,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5943,7 +5944,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5968,7 +5969,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5993,7 +5994,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6018,7 +6019,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6043,7 +6044,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6068,7 +6069,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6093,7 +6094,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6118,7 +6119,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6143,7 +6144,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6168,7 +6169,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6193,7 +6194,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6218,7 +6219,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6243,7 +6244,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6268,7 +6269,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6293,7 +6294,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6318,7 +6319,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25">
         <f t="shared" ref="A195:A258" si="3">IF(B195&lt;&gt;B196,1,0)</f>
         <v>1</v>
@@ -6343,7 +6344,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6368,7 +6369,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6393,7 +6394,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6418,7 +6419,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6443,7 +6444,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6468,7 +6469,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6493,7 +6494,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6518,7 +6519,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6543,7 +6544,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6568,7 +6569,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6593,7 +6594,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6618,7 +6619,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6643,7 +6644,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6668,7 +6669,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6693,7 +6694,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6718,7 +6719,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6743,7 +6744,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6768,7 +6769,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6793,7 +6794,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6818,7 +6819,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6843,7 +6844,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6868,7 +6869,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6893,7 +6894,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6918,7 +6919,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6943,7 +6944,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6968,7 +6969,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6993,7 +6994,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7018,7 +7019,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7043,7 +7044,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7068,7 +7069,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7093,7 +7094,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7118,7 +7119,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7143,7 +7144,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7168,7 +7169,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7193,7 +7194,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7218,7 +7219,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7243,7 +7244,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7268,7 +7269,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7293,7 +7294,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7318,7 +7319,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7343,7 +7344,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7368,7 +7369,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7393,7 +7394,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7418,7 +7419,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7443,7 +7444,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7468,7 +7469,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7493,7 +7494,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7518,7 +7519,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7543,7 +7544,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7568,7 +7569,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7593,7 +7594,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7618,7 +7619,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7643,7 +7644,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7668,7 +7669,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7693,7 +7694,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7718,7 +7719,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7743,7 +7744,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7768,7 +7769,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7793,7 +7794,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7818,7 +7819,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7843,7 +7844,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7868,7 +7869,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7893,7 +7894,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7918,7 +7919,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="25">
         <f t="shared" ref="A259:A306" si="4">IF(B259&lt;&gt;B260,1,0)</f>
         <v>0</v>
@@ -7943,7 +7944,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7968,7 +7969,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7993,7 +7994,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8018,7 +8019,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8043,7 +8044,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8068,7 +8069,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8093,7 +8094,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8118,7 +8119,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8143,7 +8144,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8168,7 +8169,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8193,7 +8194,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8218,7 +8219,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8243,7 +8244,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8268,7 +8269,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8293,7 +8294,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8318,7 +8319,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8368,7 +8369,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8393,7 +8394,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8418,7 +8419,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8468,7 +8469,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8493,7 +8494,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8543,7 +8544,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8568,7 +8569,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8618,7 +8619,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8643,7 +8644,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8668,7 +8669,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8693,7 +8694,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8718,7 +8719,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8743,7 +8744,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8768,7 +8769,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8793,7 +8794,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8818,7 +8819,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8843,7 +8844,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8868,7 +8869,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8893,7 +8894,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8918,7 +8919,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8943,7 +8944,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8968,7 +8969,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8993,7 +8994,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9018,7 +9019,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9043,7 +9044,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9068,7 +9069,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9093,7 +9094,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="27">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9119,6 +9120,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H306">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TEL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9128,7 +9136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -9408,7 +9416,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="39"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="35"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="35"/>
@@ -9498,7 +9506,7 @@
       <c r="A12" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="35"/>
@@ -9512,7 +9520,7 @@
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -9564,7 +9572,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="39"/>
+      <c r="N14" s="38"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="33"/>
@@ -9654,7 +9662,7 @@
       <c r="A18" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="33"/>
@@ -9663,7 +9671,7 @@
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="39"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -9706,6 +9714,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -9730,136 +9868,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de fuentes y dependencias" sheetId="1" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,10 +1145,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1455,7 +1458,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
@@ -9136,8 +9139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9234,7 +9237,7 @@
       <c r="G4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="40">
         <v>7</v>
       </c>
       <c r="I4" s="16">
@@ -9252,19 +9255,19 @@
       <c r="M4" s="8">
         <v>12</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="15">
         <v>13</v>
       </c>
       <c r="O4" s="8">
         <v>14</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="15">
         <v>15</v>
       </c>
       <c r="Q4" s="15">
         <v>16</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="40">
         <v>17</v>
       </c>
       <c r="S4" s="8">
@@ -9416,7 +9419,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="38"/>
+      <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="35"/>
@@ -9506,7 +9509,7 @@
       <c r="A12" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="35"/>
@@ -9520,7 +9523,7 @@
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -9572,7 +9575,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="38"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="33"/>
@@ -9662,7 +9665,7 @@
       <c r="A18" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="33"/>
@@ -9671,7 +9674,7 @@
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -9714,40 +9717,102 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="A16:A17"/>
@@ -9772,102 +9837,40 @@
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de fuentesV1.xlsx
+++ b/Lista de fuentesV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="11760" windowHeight="4860"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de fuentes y dependencias" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="268">
   <si>
     <t>Nombre Fuente</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>DB_DECISION_EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1134,6 +1137,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1145,13 +1151,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1456,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H306"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9120,6 +9123,11 @@
       <c r="G306" s="28"/>
       <c r="H306" s="26">
         <v>42688</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -9139,8 +9147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9237,7 +9245,7 @@
       <c r="G4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="33">
         <v>7</v>
       </c>
       <c r="I4" s="16">
@@ -9267,7 +9275,7 @@
       <c r="Q4" s="15">
         <v>16</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="33">
         <v>17</v>
       </c>
       <c r="S4" s="8">
@@ -9352,371 +9360,501 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="39"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="39"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="39"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="35" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -9741,136 +9879,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
